--- a/Database/10_01.xlsx
+++ b/Database/10_01.xlsx
@@ -745,15 +745,6 @@
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
       <u val="none"/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -856,6 +847,15 @@
       <u val="none"/>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1196,40 +1196,40 @@
     </xf>
     <xf fillId="0" xfId="0" numFmtId="186" borderId="0" applyFont="1" fontId="52" applyNumberFormat="1"/>
     <xf fillId="0" xfId="0" numFmtId="187" borderId="0" applyFont="1" fontId="53" applyNumberFormat="1"/>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="54">
+    <xf applyAlignment="1" fillId="24" xfId="0" numFmtId="2" borderId="0" applyFont="1" fontId="54" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="55">
+      <alignment vertical="bottom" horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" fillId="25" xfId="0" numFmtId="2" borderId="0" applyFont="1" fontId="56" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="bottom" horizontal="right"/>
+    </xf>
+    <xf fillId="0" xfId="0" numFmtId="188" borderId="0" applyFont="1" fontId="57" applyNumberFormat="1"/>
+    <xf fillId="0" xfId="0" numFmtId="189" borderId="0" applyFont="1" fontId="58" applyNumberFormat="1"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="59">
       <alignment vertical="bottom" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="24" xfId="0" numFmtId="2" borderId="0" applyFont="1" fontId="55" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="bottom" horizontal="center"/>
+    <xf applyAlignment="1" fillId="26" xfId="0" numFmtId="190" borderId="0" applyFont="1" fontId="60" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="bottom" horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="56">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="61">
       <alignment vertical="bottom" horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="25" xfId="0" numFmtId="2" borderId="0" applyFont="1" fontId="57" applyNumberFormat="1" applyFill="1">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="191" borderId="0" applyFont="1" fontId="62" applyNumberFormat="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="63">
+      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="27" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="64" applyFill="1">
       <alignment vertical="bottom" horizontal="right"/>
     </xf>
-    <xf fillId="0" xfId="0" numFmtId="188" borderId="0" applyFont="1" fontId="58" applyNumberFormat="1"/>
-    <xf fillId="0" xfId="0" numFmtId="189" borderId="0" applyFont="1" fontId="59" applyNumberFormat="1"/>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="60">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="26" xfId="0" numFmtId="190" borderId="0" applyFont="1" fontId="61" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="bottom" horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="62">
-      <alignment vertical="bottom" horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="191" borderId="0" applyFont="1" fontId="63" applyNumberFormat="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="64">
+    <xf applyAlignment="1" fillId="28" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="65" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="27" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="65" applyFill="1">
-      <alignment vertical="bottom" horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" fillId="28" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="66" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="66">
+      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="29" xfId="0" numFmtId="192" borderId="0" applyFont="1" fontId="67" applyNumberFormat="1" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
@@ -1363,7 +1363,7 @@
       <c s="27" r="Y3"/>
     </row>
     <row r="4">
-      <c t="s" s="62" r="A4">
+      <c t="s" s="61" r="A4">
         <v>2</v>
       </c>
       <c s="27" r="B4"/>
@@ -1425,15 +1425,15 @@
         <f>HYPERLINK("http://adsabs.harvard.edu/abs/2004JPCRD..33.1059J","http://adsabs.harvard.edu/abs/2004JPCRD..33.1059J")</f>
         <v>http://adsabs.harvard.edu/abs/2004JPCRD..33.1059J</v>
       </c>
-      <c s="62" r="B6"/>
-      <c s="62" r="C6"/>
-      <c s="62" r="D6"/>
-      <c s="62" r="E6"/>
-      <c s="62" r="F6"/>
-      <c s="62" r="G6"/>
-      <c s="62" r="H6"/>
-      <c s="62" r="I6"/>
-      <c s="62" r="J6"/>
+      <c s="61" r="B6"/>
+      <c s="61" r="C6"/>
+      <c s="61" r="D6"/>
+      <c s="61" r="E6"/>
+      <c s="61" r="F6"/>
+      <c s="61" r="G6"/>
+      <c s="61" r="H6"/>
+      <c s="61" r="I6"/>
+      <c s="61" r="J6"/>
       <c s="43" r="K6"/>
       <c s="43" r="L6"/>
       <c s="43" r="M6"/>
@@ -1455,12 +1455,12 @@
         <f>HYPERLINK("http://adsabs.harvard.edu/abs/2004PhyS...69..196J","http://adsabs.harvard.edu/abs/2004PhyS...69..196J")</f>
         <v>http://adsabs.harvard.edu/abs/2004PhyS...69..196J</v>
       </c>
-      <c s="62" r="B7"/>
-      <c s="62" r="C7"/>
-      <c s="62" r="D7"/>
-      <c s="62" r="E7"/>
-      <c s="62" r="F7"/>
-      <c s="62" r="G7"/>
+      <c s="61" r="B7"/>
+      <c s="61" r="C7"/>
+      <c s="61" r="D7"/>
+      <c s="61" r="E7"/>
+      <c s="61" r="F7"/>
+      <c s="61" r="G7"/>
       <c s="43" r="H7"/>
       <c s="43" r="I7"/>
       <c s="43" r="J7"/>
@@ -1485,12 +1485,12 @@
         <f>HYPERLINK("http://www.fisica.unam.mx/research/tables/spectra/1el/","http://www.fisica.unam.mx/research/tables/spectra/1el/")</f>
         <v>http://www.fisica.unam.mx/research/tables/spectra/1el/</v>
       </c>
-      <c s="62" r="B8"/>
-      <c s="62" r="C8"/>
-      <c s="62" r="D8"/>
-      <c s="62" r="E8"/>
-      <c s="62" r="F8"/>
-      <c s="62" r="G8"/>
+      <c s="61" r="B8"/>
+      <c s="61" r="C8"/>
+      <c s="61" r="D8"/>
+      <c s="61" r="E8"/>
+      <c s="61" r="F8"/>
+      <c s="61" r="G8"/>
       <c s="43" r="H8"/>
       <c s="43" r="I8"/>
       <c s="43" r="J8"/>
@@ -1569,18 +1569,18 @@
       <c s="27" r="Y10"/>
     </row>
     <row r="11">
-      <c t="s" s="56" r="A11">
+      <c t="s" s="55" r="A11">
         <v>6</v>
       </c>
-      <c s="56" r="B11"/>
-      <c s="56" r="C11"/>
+      <c s="55" r="B11"/>
+      <c s="55" r="C11"/>
       <c s="13" r="D11"/>
       <c s="13" r="E11"/>
       <c s="13" r="F11"/>
       <c s="13" r="G11"/>
       <c s="13" r="H11"/>
       <c s="13" r="I11"/>
-      <c s="58" r="J11"/>
+      <c s="57" r="J11"/>
       <c s="43" r="K11"/>
       <c s="43" r="L11"/>
       <c s="43" r="M11"/>
@@ -1598,18 +1598,18 @@
       <c s="27" r="Y11"/>
     </row>
     <row r="12">
-      <c t="s" s="56" r="A12">
+      <c t="s" s="55" r="A12">
         <v>7</v>
       </c>
-      <c s="56" r="B12"/>
-      <c s="56" r="C12"/>
+      <c s="55" r="B12"/>
+      <c s="55" r="C12"/>
       <c s="13" r="D12"/>
       <c s="13" r="E12"/>
       <c s="13" r="F12"/>
       <c s="13" r="G12"/>
       <c s="13" r="H12"/>
       <c s="13" r="I12"/>
-      <c s="58" r="J12"/>
+      <c s="57" r="J12"/>
       <c s="43" r="K12"/>
       <c s="43" r="L12"/>
       <c s="43" r="M12"/>
@@ -1789,10 +1789,10 @@
       <c t="s" s="51" r="L18">
         <v>13</v>
       </c>
-      <c t="s" s="55" r="M18">
+      <c t="s" s="54" r="M18">
         <v>14</v>
       </c>
-      <c t="s" s="55" r="N18">
+      <c t="s" s="54" r="N18">
         <v>15</v>
       </c>
       <c t="s" s="42" r="O18">
@@ -1846,10 +1846,10 @@
       <c t="s" s="51" r="L19">
         <v>26</v>
       </c>
-      <c t="s" s="57" r="M19">
+      <c t="s" s="56" r="M19">
         <v>26</v>
       </c>
-      <c t="s" s="57" r="N19">
+      <c t="s" s="56" r="N19">
         <v>26</v>
       </c>
       <c t="s" s="6" r="O19">
@@ -3408,7 +3408,7 @@
     <row r="49">
       <c s="27" r="A49"/>
       <c s="27" r="B49"/>
-      <c s="60" r="C49"/>
+      <c s="59" r="C49"/>
       <c s="27" r="D49"/>
       <c s="43" r="E49"/>
       <c s="27" r="F49"/>
@@ -3435,7 +3435,7 @@
     <row r="50">
       <c s="27" r="A50"/>
       <c s="27" r="B50"/>
-      <c s="60" r="C50"/>
+      <c s="59" r="C50"/>
       <c s="27" r="D50"/>
       <c s="43" r="E50"/>
       <c s="27" r="F50"/>
@@ -3462,7 +3462,7 @@
     <row r="51">
       <c s="27" r="A51"/>
       <c s="27" r="B51"/>
-      <c s="60" r="C51"/>
+      <c s="59" r="C51"/>
       <c s="27" r="D51"/>
       <c s="43" r="E51"/>
       <c s="27" r="F51"/>
@@ -3489,7 +3489,7 @@
     <row r="52">
       <c s="27" r="A52"/>
       <c s="27" r="B52"/>
-      <c s="60" r="C52"/>
+      <c s="59" r="C52"/>
       <c s="27" r="D52"/>
       <c s="43" r="E52"/>
       <c s="27" r="F52"/>
@@ -3516,7 +3516,7 @@
     <row r="53">
       <c s="27" r="A53"/>
       <c s="27" r="B53"/>
-      <c s="60" r="C53"/>
+      <c s="59" r="C53"/>
       <c s="27" r="D53"/>
       <c s="43" r="E53"/>
       <c s="27" r="F53"/>
@@ -3543,7 +3543,7 @@
     <row r="54">
       <c s="27" r="A54"/>
       <c s="27" r="B54"/>
-      <c s="60" r="C54"/>
+      <c s="59" r="C54"/>
       <c s="27" r="D54"/>
       <c s="43" r="E54"/>
       <c s="27" r="F54"/>
@@ -3570,7 +3570,7 @@
     <row r="55">
       <c s="27" r="A55"/>
       <c s="27" r="B55"/>
-      <c s="60" r="C55"/>
+      <c s="59" r="C55"/>
       <c s="27" r="D55"/>
       <c s="43" r="E55"/>
       <c s="27" r="F55"/>
@@ -3597,7 +3597,7 @@
     <row r="56">
       <c s="27" r="A56"/>
       <c s="27" r="B56"/>
-      <c s="60" r="C56"/>
+      <c s="59" r="C56"/>
       <c s="27" r="D56"/>
       <c s="43" r="E56"/>
       <c s="27" r="F56"/>
@@ -3624,7 +3624,7 @@
     <row r="57">
       <c s="27" r="A57"/>
       <c s="27" r="B57"/>
-      <c s="60" r="C57"/>
+      <c s="59" r="C57"/>
       <c s="27" r="D57"/>
       <c s="43" r="E57"/>
       <c s="27" r="F57"/>
@@ -3651,7 +3651,7 @@
     <row r="58">
       <c s="27" r="A58"/>
       <c s="27" r="B58"/>
-      <c s="60" r="C58"/>
+      <c s="59" r="C58"/>
       <c s="27" r="D58"/>
       <c s="43" r="E58"/>
       <c s="27" r="F58"/>
@@ -3678,7 +3678,7 @@
     <row r="59">
       <c s="27" r="A59"/>
       <c s="27" r="B59"/>
-      <c s="60" r="C59"/>
+      <c s="59" r="C59"/>
       <c s="27" r="D59"/>
       <c s="43" r="E59"/>
       <c s="27" r="F59"/>
@@ -3705,7 +3705,7 @@
     <row r="60">
       <c s="27" r="A60"/>
       <c s="27" r="B60"/>
-      <c s="60" r="C60"/>
+      <c s="59" r="C60"/>
       <c s="27" r="D60"/>
       <c s="43" r="E60"/>
       <c s="27" r="F60"/>
@@ -3732,7 +3732,7 @@
     <row r="61">
       <c s="27" r="A61"/>
       <c s="27" r="B61"/>
-      <c s="60" r="C61"/>
+      <c s="59" r="C61"/>
       <c s="27" r="D61"/>
       <c s="43" r="E61"/>
       <c s="27" r="F61"/>
@@ -3759,7 +3759,7 @@
     <row r="62">
       <c s="27" r="A62"/>
       <c s="27" r="B62"/>
-      <c s="60" r="C62"/>
+      <c s="59" r="C62"/>
       <c s="27" r="D62"/>
       <c s="43" r="E62"/>
       <c s="27" r="F62"/>
@@ -3786,7 +3786,7 @@
     <row r="63">
       <c s="27" r="A63"/>
       <c s="27" r="B63"/>
-      <c s="60" r="C63"/>
+      <c s="59" r="C63"/>
       <c s="27" r="D63"/>
       <c s="43" r="E63"/>
       <c s="27" r="F63"/>
@@ -3813,7 +3813,7 @@
     <row r="64">
       <c s="27" r="A64"/>
       <c s="27" r="B64"/>
-      <c s="60" r="C64"/>
+      <c s="59" r="C64"/>
       <c s="27" r="D64"/>
       <c s="43" r="E64"/>
       <c s="27" r="F64"/>
@@ -3840,7 +3840,7 @@
     <row r="65">
       <c s="27" r="A65"/>
       <c s="27" r="B65"/>
-      <c s="60" r="C65"/>
+      <c s="59" r="C65"/>
       <c s="27" r="D65"/>
       <c s="43" r="E65"/>
       <c s="27" r="F65"/>
@@ -3867,7 +3867,7 @@
     <row r="66">
       <c s="27" r="A66"/>
       <c s="27" r="B66"/>
-      <c s="60" r="C66"/>
+      <c s="59" r="C66"/>
       <c s="27" r="D66"/>
       <c s="43" r="E66"/>
       <c s="27" r="F66"/>
@@ -3894,7 +3894,7 @@
     <row r="67">
       <c s="27" r="A67"/>
       <c s="27" r="B67"/>
-      <c s="60" r="C67"/>
+      <c s="59" r="C67"/>
       <c s="27" r="D67"/>
       <c s="43" r="E67"/>
       <c s="27" r="F67"/>
@@ -3921,7 +3921,7 @@
     <row r="68">
       <c s="27" r="A68"/>
       <c s="27" r="B68"/>
-      <c s="60" r="C68"/>
+      <c s="59" r="C68"/>
       <c s="27" r="D68"/>
       <c s="43" r="E68"/>
       <c s="27" r="F68"/>
@@ -3948,7 +3948,7 @@
     <row r="69">
       <c s="27" r="A69"/>
       <c s="27" r="B69"/>
-      <c s="60" r="C69"/>
+      <c s="59" r="C69"/>
       <c s="27" r="D69"/>
       <c s="43" r="E69"/>
       <c s="27" r="F69"/>
@@ -4015,13 +4015,13 @@
     <col min="13" customWidth="1" max="13" width="10.86"/>
     <col min="14" customWidth="1" max="14" style="14" width="11.14"/>
     <col min="15" customWidth="1" max="15" style="33" width="11.43"/>
-    <col min="16" customWidth="1" max="17" style="63" width="11.29"/>
-    <col min="18" customWidth="1" max="18" style="63" width="11.43"/>
-    <col min="19" customWidth="1" max="19" style="63" width="11.14"/>
-    <col min="20" customWidth="1" max="20" style="63" width="10.71"/>
-    <col min="21" customWidth="1" max="21" style="63" width="11.71"/>
-    <col min="22" customWidth="1" max="22" style="63" width="10.57"/>
-    <col min="23" customWidth="1" max="23" style="63" width="9.86"/>
+    <col min="16" customWidth="1" max="17" style="62" width="11.29"/>
+    <col min="18" customWidth="1" max="18" style="62" width="11.43"/>
+    <col min="19" customWidth="1" max="19" style="62" width="11.14"/>
+    <col min="20" customWidth="1" max="20" style="62" width="10.71"/>
+    <col min="21" customWidth="1" max="21" style="62" width="11.71"/>
+    <col min="22" customWidth="1" max="22" style="62" width="10.57"/>
+    <col min="23" customWidth="1" max="23" style="62" width="9.86"/>
     <col min="24" customWidth="1" max="25" width="10.29"/>
     <col min="26" customWidth="1" max="26" style="68" width="11.86"/>
     <col min="27" customWidth="1" max="27" width="9.57"/>
@@ -4157,16 +4157,16 @@
         <f>HYPERLINK("http://adsabs.harvard.edu/abs/2004JPCRD..33.1059J","http://adsabs.harvard.edu/abs/2004JPCRD..33.1059J")</f>
         <v>http://adsabs.harvard.edu/abs/2004JPCRD..33.1059J</v>
       </c>
-      <c s="62" r="B4"/>
-      <c s="62" r="C4"/>
-      <c s="62" r="D4"/>
-      <c s="62" r="E4"/>
-      <c s="62" r="F4"/>
-      <c s="62" r="G4"/>
-      <c s="62" r="H4"/>
-      <c s="62" r="I4"/>
-      <c s="62" r="J4"/>
-      <c s="62" r="K4"/>
+      <c s="61" r="B4"/>
+      <c s="61" r="C4"/>
+      <c s="61" r="D4"/>
+      <c s="61" r="E4"/>
+      <c s="61" r="F4"/>
+      <c s="61" r="G4"/>
+      <c s="61" r="H4"/>
+      <c s="61" r="I4"/>
+      <c s="61" r="J4"/>
+      <c s="61" r="K4"/>
       <c s="43" r="L4"/>
       <c s="43" r="M4"/>
       <c s="52" r="N4"/>
@@ -4198,13 +4198,13 @@
         <f>HYPERLINK("http://adsabs.harvard.edu/abs/2004PhyS...69..196J","http://adsabs.harvard.edu/abs/2004PhyS...69..196J")</f>
         <v>http://adsabs.harvard.edu/abs/2004PhyS...69..196J</v>
       </c>
-      <c s="62" r="B5"/>
-      <c s="62" r="C5"/>
-      <c s="62" r="D5"/>
-      <c s="62" r="E5"/>
-      <c s="62" r="F5"/>
-      <c s="62" r="G5"/>
-      <c s="62" r="H5"/>
+      <c s="61" r="B5"/>
+      <c s="61" r="C5"/>
+      <c s="61" r="D5"/>
+      <c s="61" r="E5"/>
+      <c s="61" r="F5"/>
+      <c s="61" r="G5"/>
+      <c s="61" r="H5"/>
       <c s="43" r="I5"/>
       <c s="43" r="J5"/>
       <c s="43" r="K5"/>
@@ -4239,13 +4239,13 @@
         <f>HYPERLINK("http://www.fisica.unam.mx/research/tables/spectra/1el/","http://www.fisica.unam.mx/research/tables/spectra/1el/")</f>
         <v>http://www.fisica.unam.mx/research/tables/spectra/1el/</v>
       </c>
-      <c s="62" r="B6"/>
-      <c s="62" r="C6"/>
-      <c s="62" r="D6"/>
-      <c s="62" r="E6"/>
-      <c s="62" r="F6"/>
-      <c s="62" r="G6"/>
-      <c s="62" r="H6"/>
+      <c s="61" r="B6"/>
+      <c s="61" r="C6"/>
+      <c s="61" r="D6"/>
+      <c s="61" r="E6"/>
+      <c s="61" r="F6"/>
+      <c s="61" r="G6"/>
+      <c s="61" r="H6"/>
       <c s="43" r="I6"/>
       <c s="43" r="J6"/>
       <c s="43" r="K6"/>
@@ -4356,11 +4356,11 @@
       <c s="27" r="AJ8"/>
     </row>
     <row r="9">
-      <c t="s" s="56" r="A9">
+      <c t="s" s="55" r="A9">
         <v>6</v>
       </c>
-      <c s="56" r="B9"/>
-      <c s="56" r="C9"/>
+      <c s="55" r="B9"/>
+      <c s="55" r="C9"/>
       <c s="13" r="D9"/>
       <c s="13" r="E9"/>
       <c s="13" r="F9"/>
@@ -4368,7 +4368,7 @@
       <c s="13" r="H9"/>
       <c s="13" r="I9"/>
       <c s="13" r="J9"/>
-      <c s="58" r="K9"/>
+      <c s="57" r="K9"/>
       <c s="43" r="L9"/>
       <c s="43" r="M9"/>
       <c s="52" r="N9"/>
@@ -4879,7 +4879,7 @@
       <c s="5" r="AC21"/>
       <c s="5" r="AD21"/>
       <c s="5" r="AE21"/>
-      <c t="s" s="66" r="AF21">
+      <c t="s" s="65" r="AF21">
         <v>55</v>
       </c>
       <c s="27" r="AG21"/>
@@ -4900,7 +4900,7 @@
       <c t="s" s="48" r="D22">
         <v>19</v>
       </c>
-      <c t="s" s="61" r="E22">
+      <c t="s" s="60" r="E22">
         <v>57</v>
       </c>
       <c t="s" s="4" r="F22">
@@ -4966,19 +4966,19 @@
       <c t="s" s="39" r="Z22">
         <v>59</v>
       </c>
-      <c t="s" s="65" r="AA22">
+      <c t="s" s="64" r="AA22">
         <v>60</v>
       </c>
-      <c t="s" s="65" r="AB22">
+      <c t="s" s="64" r="AB22">
         <v>61</v>
       </c>
-      <c t="s" s="65" r="AC22">
+      <c t="s" s="64" r="AC22">
         <v>62</v>
       </c>
-      <c t="s" s="65" r="AD22">
+      <c t="s" s="64" r="AD22">
         <v>63</v>
       </c>
-      <c t="s" s="65" r="AE22">
+      <c t="s" s="64" r="AE22">
         <v>64</v>
       </c>
       <c t="s" s="1" r="AF22">
@@ -5002,11 +5002,11 @@
       <c s="13" r="D23">
         <v>1</v>
       </c>
-      <c s="59" r="E23">
+      <c s="58" r="E23">
         <f>((1/(INDEX(E0!J$20:J$44,C23,1)-INDEX(E0!J$20:J$44,D23,1))))*100000000</f>
         <v>12.1374933695301</v>
       </c>
-      <c s="59" r="F23"/>
+      <c s="58" r="F23"/>
       <c s="53" r="G23">
         <f>SUM(H23:M23)</f>
         <v>6272100000000</v>
@@ -5066,7 +5066,7 @@
       <c s="27" r="AC23"/>
       <c s="27" r="AD23"/>
       <c s="27" r="AE23"/>
-      <c s="63" r="AF23">
+      <c s="62" r="AF23">
         <v>6272100000000</v>
       </c>
       <c s="33" r="AG23"/>
@@ -5087,7 +5087,7 @@
       <c s="13" r="D24">
         <v>1</v>
       </c>
-      <c s="59" r="E24">
+      <c s="58" r="E24">
         <f>((1/(INDEX(E0!J$20:J$44,C24,1)-INDEX(E0!J$20:J$44,D24,1))))*100000000</f>
         <v>12.1372531563382</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>25200</v>
       </c>
       <c s="27" r="AE24"/>
-      <c s="63" r="AF24"/>
+      <c s="62" r="AF24"/>
       <c s="33" r="AG24"/>
       <c s="33" r="AH24"/>
       <c s="27" r="AI24"/>
@@ -5175,11 +5175,11 @@
       <c s="13" r="D25">
         <v>1</v>
       </c>
-      <c s="59" r="E25">
+      <c s="58" r="E25">
         <f>((1/(INDEX(E0!J$20:J$44,C25,1)-INDEX(E0!J$20:J$44,D25,1))))*100000000</f>
         <v>12.1320853372581</v>
       </c>
-      <c s="59" r="F25"/>
+      <c s="58" r="F25"/>
       <c s="53" r="G25">
         <f>SUM(H25:M25)</f>
         <v>6260404693700</v>
@@ -5249,7 +5249,7 @@
       <c s="27" r="AC25"/>
       <c s="27" r="AD25"/>
       <c s="27" r="AE25"/>
-      <c s="63" r="AF25">
+      <c s="62" r="AF25">
         <v>6260400000000</v>
       </c>
       <c s="33" r="AG25"/>
@@ -5270,11 +5270,11 @@
       <c s="13" r="D26">
         <v>2</v>
       </c>
-      <c s="59" r="E26">
+      <c s="58" r="E26">
         <f>((1/(INDEX(E0!J$20:J$44,C26,1)-INDEX(E0!J$20:J$44,D26,1))))*100000000</f>
         <v>27228.5922001019</v>
       </c>
-      <c s="59" r="F26"/>
+      <c s="58" r="F26"/>
       <c s="53" r="G26">
         <f>SUM(H26:M26)</f>
         <v>0.4421313246</v>
@@ -5346,7 +5346,7 @@
         <v>0.44</v>
       </c>
       <c s="27" r="AE26"/>
-      <c s="63" r="AF26"/>
+      <c s="62" r="AF26"/>
       <c s="33" r="AG26"/>
       <c s="33" r="AH26"/>
       <c s="27" r="AI26"/>
@@ -5365,11 +5365,11 @@
       <c s="13" r="D27">
         <v>3</v>
       </c>
-      <c s="59" r="E27">
+      <c s="58" r="E27">
         <f>((1/(INDEX(E0!J$20:J$44,C27,1)-INDEX(E0!J$20:J$44,D27,1))))*100000000</f>
         <v>28493.6815261231</v>
       </c>
-      <c s="59" r="F27"/>
+      <c s="58" r="F27"/>
       <c s="53" r="G27">
         <f>SUM(H27:M27)</f>
         <v>8957.00000000133</v>
@@ -5439,7 +5439,7 @@
       <c s="27" r="AC27"/>
       <c s="27" r="AD27"/>
       <c s="27" r="AE27"/>
-      <c s="63" r="AF27"/>
+      <c s="62" r="AF27"/>
       <c s="33" r="AG27"/>
       <c s="33" r="AH27"/>
       <c s="27" r="AI27"/>
@@ -5458,11 +5458,11 @@
       <c s="13" r="D28">
         <v>1</v>
       </c>
-      <c s="59" r="E28">
+      <c s="58" r="E28">
         <f>((1/(INDEX(E0!J$20:J$44,C28,1)-INDEX(E0!J$20:J$44,D28,1))))*100000000</f>
         <v>10.2396334204682</v>
       </c>
-      <c s="59" r="F28"/>
+      <c s="58" r="F28"/>
       <c s="53" r="G28">
         <f>SUM(H28:M28)</f>
         <v>1672000000000</v>
@@ -5532,7 +5532,7 @@
       <c s="27" r="AC28"/>
       <c s="27" r="AD28"/>
       <c s="27" r="AE28"/>
-      <c s="63" r="AF28">
+      <c s="62" r="AF28">
         <v>1672000000000</v>
       </c>
       <c s="33" r="AG28"/>
@@ -5553,11 +5553,11 @@
       <c s="13" r="D29">
         <v>2</v>
       </c>
-      <c s="59" r="E29">
+      <c s="58" r="E29">
         <f>((1/(INDEX(E0!J$20:J$44,C29,1)-INDEX(E0!J$20:J$44,D29,1))))*100000000</f>
         <v>65.4861191463489</v>
       </c>
-      <c s="59" r="F29"/>
+      <c s="58" r="F29"/>
       <c s="53" r="G29">
         <f>SUM(H29:M29)</f>
         <v>4.949</v>
@@ -5627,7 +5627,7 @@
         <v>4.91</v>
       </c>
       <c s="27" r="AE29"/>
-      <c s="63" r="AF29">
+      <c s="62" r="AF29">
         <v>4.949</v>
       </c>
       <c s="33" r="AG29"/>
@@ -5648,11 +5648,11 @@
       <c s="13" r="D30">
         <v>3</v>
       </c>
-      <c s="59" r="E30">
+      <c s="58" r="E30">
         <f>((1/(INDEX(E0!J$20:J$44,C30,1)-INDEX(E0!J$20:J$44,D30,1))))*100000000</f>
         <v>65.4931126100171</v>
       </c>
-      <c s="59" r="F30"/>
+      <c s="58" r="F30"/>
       <c s="53" r="G30">
         <f>SUM(H30:M30)</f>
         <v>225400000000</v>
@@ -5722,7 +5722,7 @@
       <c s="27" r="AC30"/>
       <c s="27" r="AD30"/>
       <c s="27" r="AE30"/>
-      <c s="63" r="AF30">
+      <c s="62" r="AF30">
         <v>225410000000</v>
       </c>
       <c s="33" r="AG30"/>
@@ -5743,11 +5743,11 @@
       <c s="13" r="D31">
         <v>4</v>
       </c>
-      <c s="59" r="E31">
+      <c s="58" r="E31">
         <f>((1/(INDEX(E0!J$20:J$44,C31,1)-INDEX(E0!J$20:J$44,D31,1))))*100000000</f>
         <v>65.6439962237372</v>
       </c>
-      <c s="59" r="F31"/>
+      <c s="58" r="F31"/>
       <c s="53" r="G31">
         <f>SUM(H31:M31)</f>
         <v>23939129.56</v>
@@ -5819,7 +5819,7 @@
         <v>141</v>
       </c>
       <c s="27" r="AE31"/>
-      <c s="63" r="AF31">
+      <c s="62" r="AF31">
         <v>23940000</v>
       </c>
       <c s="33" r="AG31"/>
@@ -5840,11 +5840,11 @@
       <c s="13" r="D32">
         <v>1</v>
       </c>
-      <c s="59" r="E32">
+      <c s="58" r="E32">
         <f>((1/(INDEX(E0!J$20:J$44,C32,1)-INDEX(E0!J$20:J$44,D32,1))))*100000000</f>
         <v>10.2395822748485</v>
       </c>
-      <c s="59" r="F32"/>
+      <c s="58" r="F32"/>
       <c s="53" r="G32">
         <f>SUM(H32:M32)</f>
         <v>11149</v>
@@ -5914,7 +5914,7 @@
         <v>11400</v>
       </c>
       <c s="27" r="AE32"/>
-      <c s="63" r="AF32"/>
+      <c s="62" r="AF32"/>
       <c s="33" r="AG32"/>
       <c s="33" r="AH32"/>
       <c s="27" r="AI32"/>
@@ -5933,11 +5933,11 @@
       <c s="13" r="D33">
         <v>2</v>
       </c>
-      <c s="59" r="E33">
+      <c s="58" r="E33">
         <f>((1/(INDEX(E0!J$20:J$44,C33,1)-INDEX(E0!J$20:J$44,D33,1))))*100000000</f>
         <v>65.4840273161381</v>
       </c>
-      <c s="59" r="F33"/>
+      <c s="58" r="F33"/>
       <c s="53" r="G33">
         <f>SUM(H33:M33)</f>
         <v>21127000000</v>
@@ -6007,7 +6007,7 @@
       <c s="27" r="AC33"/>
       <c s="27" r="AD33"/>
       <c s="27" r="AE33"/>
-      <c s="63" r="AF33">
+      <c s="62" r="AF33">
         <v>21127000000</v>
       </c>
       <c s="33" r="AG33"/>
@@ -6028,11 +6028,11 @@
       <c s="13" r="D34">
         <v>3</v>
       </c>
-      <c s="59" r="E34">
+      <c s="58" r="E34">
         <f>((1/(INDEX(E0!J$20:J$44,C34,1)-INDEX(E0!J$20:J$44,D34,1))))*100000000</f>
         <v>65.4910203330036</v>
       </c>
-      <c s="59" r="F34"/>
+      <c s="58" r="F34"/>
       <c s="53" r="G34">
         <f>SUM(H34:M34)</f>
         <v>18.937</v>
@@ -6102,7 +6102,7 @@
         <v>18.8</v>
       </c>
       <c s="27" r="AE34"/>
-      <c s="63" r="AF34">
+      <c s="62" r="AF34">
         <v>18.937</v>
       </c>
       <c s="33" r="AG34"/>
@@ -6123,11 +6123,11 @@
       <c s="13" r="D35">
         <v>4</v>
       </c>
-      <c s="59" r="E35">
+      <c s="58" r="E35">
         <f>((1/(INDEX(E0!J$20:J$44,C35,1)-INDEX(E0!J$20:J$44,D35,1))))*100000000</f>
         <v>65.6418942953609</v>
       </c>
-      <c s="59" r="F35"/>
+      <c s="58" r="F35"/>
       <c s="53" r="G35">
         <f>SUM(H35:M35)</f>
         <v>42723001095.6</v>
@@ -6197,7 +6197,7 @@
       <c s="27" r="AC35"/>
       <c s="27" r="AD35"/>
       <c s="27" r="AE35"/>
-      <c s="63" r="AF35">
+      <c s="62" r="AF35">
         <v>42723000000</v>
       </c>
       <c s="33" r="AG35"/>
@@ -6218,11 +6218,11 @@
       <c s="13" r="D36">
         <v>1</v>
       </c>
-      <c s="59" r="E36">
+      <c s="58" r="E36">
         <f>((1/(INDEX(E0!J$20:J$44,C36,1)-INDEX(E0!J$20:J$44,D36,1))))*100000000</f>
         <v>10.238494415616</v>
       </c>
-      <c s="59" r="F36"/>
+      <c s="58" r="F36"/>
       <c s="53" r="G36">
         <f>SUM(H36:M36)</f>
         <v>593090069.421</v>
@@ -6294,7 +6294,7 @@
         <v>190</v>
       </c>
       <c s="27" r="AE36"/>
-      <c s="63" r="AF36"/>
+      <c s="62" r="AF36"/>
       <c s="33" r="AG36"/>
       <c s="33" r="AH36"/>
       <c s="27" r="AI36"/>
@@ -6313,11 +6313,11 @@
       <c s="13" r="D37">
         <v>2</v>
       </c>
-      <c s="59" r="E37">
+      <c s="58" r="E37">
         <f>((1/(INDEX(E0!J$20:J$44,C37,1)-INDEX(E0!J$20:J$44,D37,1))))*100000000</f>
         <v>65.4395611052714</v>
       </c>
-      <c s="59" r="F37"/>
+      <c s="58" r="F37"/>
       <c s="53" r="G37">
         <f>SUM(H37:M37)</f>
         <v>540240000556.36</v>
@@ -6387,7 +6387,7 @@
       <c s="27" r="AC37"/>
       <c s="27" r="AD37"/>
       <c s="27" r="AE37"/>
-      <c s="63" r="AF37">
+      <c s="62" r="AF37">
         <v>540240000000</v>
       </c>
       <c s="33" r="AG37"/>
@@ -6408,11 +6408,11 @@
       <c s="13" r="D38">
         <v>3</v>
       </c>
-      <c s="59" r="E38">
+      <c s="58" r="E38">
         <f>((1/(INDEX(E0!J$20:J$44,C38,1)-INDEX(E0!J$20:J$44,D38,1))))*100000000</f>
         <v>65.446544627792</v>
       </c>
-      <c s="59" r="F38"/>
+      <c s="58" r="F38"/>
       <c s="53" r="G38">
         <f>SUM(H38:M38)</f>
         <v>51339001.0591</v>
@@ -6484,7 +6484,7 @@
         <v>2.04</v>
       </c>
       <c s="27" r="AE38"/>
-      <c s="63" r="AF38">
+      <c s="62" r="AF38">
         <v>51339000</v>
       </c>
       <c s="33" r="AG38"/>
@@ -6505,11 +6505,11 @@
       <c s="13" r="D39">
         <v>4</v>
       </c>
-      <c s="59" r="E39">
+      <c s="58" r="E39">
         <f>((1/(INDEX(E0!J$20:J$44,C39,1)-INDEX(E0!J$20:J$44,D39,1))))*100000000</f>
         <v>65.5972135035244</v>
       </c>
-      <c s="59" r="F39"/>
+      <c s="58" r="F39"/>
       <c s="53" r="G39">
         <f>SUM(H39:M39)</f>
         <v>107770002261.5</v>
@@ -6579,7 +6579,7 @@
       <c s="27" r="AC39"/>
       <c s="27" r="AD39"/>
       <c s="27" r="AE39"/>
-      <c s="63" r="AF39">
+      <c s="62" r="AF39">
         <v>107770000000</v>
       </c>
       <c s="33" r="AG39"/>
@@ -6600,11 +6600,11 @@
       <c s="13" r="D40">
         <v>5</v>
       </c>
-      <c s="59" r="E40">
+      <c s="58" r="E40">
         <f>((1/(INDEX(E0!J$20:J$44,C40,1)-INDEX(E0!J$20:J$44,D40,1))))*100000000</f>
         <v>92043.883209892</v>
       </c>
-      <c s="59" r="F40"/>
+      <c s="58" r="F40"/>
       <c s="53" r="G40">
         <f>SUM(H40:M40)</f>
         <v>874.89</v>
@@ -6674,7 +6674,7 @@
       <c s="27" r="AC40"/>
       <c s="27" r="AD40"/>
       <c s="27" r="AE40"/>
-      <c s="63" r="AF40"/>
+      <c s="62" r="AF40"/>
       <c s="33" r="AG40"/>
       <c s="33" r="AH40"/>
       <c s="27" r="AI40"/>
@@ -6693,11 +6693,11 @@
       <c s="13" r="D41">
         <v>6</v>
       </c>
-      <c s="59" r="E41">
+      <c s="58" r="E41">
         <f>((1/(INDEX(E0!J$20:J$44,C41,1)-INDEX(E0!J$20:J$44,D41,1))))*100000000</f>
         <v>96370.8380688193</v>
       </c>
-      <c s="59" r="F41"/>
+      <c s="58" r="F41"/>
       <c s="53" r="G41">
         <f>SUM(H41:M41)</f>
         <v>0.0000000683254</v>
@@ -6762,7 +6762,7 @@
       <c s="27" r="AC41"/>
       <c s="27" r="AD41"/>
       <c s="27" r="AE41"/>
-      <c s="63" r="AF41"/>
+      <c s="62" r="AF41"/>
       <c s="33" r="AG41"/>
       <c s="33" r="AH41"/>
       <c s="27" r="AI41"/>
@@ -6781,11 +6781,11 @@
       <c s="13" r="D42">
         <v>1</v>
       </c>
-      <c s="59" r="E42">
+      <c s="58" r="E42">
         <f>((1/(INDEX(E0!J$20:J$44,C42,1)-INDEX(E0!J$20:J$44,D42,1))))*100000000</f>
         <v>10.2384924850218</v>
       </c>
-      <c s="59" r="F42"/>
+      <c s="58" r="F42"/>
       <c s="53" r="G42">
         <f>SUM(H42:M42)</f>
         <v>1672401759300</v>
@@ -6855,7 +6855,7 @@
       <c s="27" r="AC42"/>
       <c s="27" r="AD42"/>
       <c s="27" r="AE42"/>
-      <c s="63" r="AF42">
+      <c s="62" r="AF42">
         <v>1672400000000</v>
       </c>
       <c s="33" r="AG42"/>
@@ -6876,11 +6876,11 @@
       <c s="13" r="D43">
         <v>2</v>
       </c>
-      <c s="59" r="E43">
+      <c s="58" r="E43">
         <f>((1/(INDEX(E0!J$20:J$44,C43,1)-INDEX(E0!J$20:J$44,D43,1))))*100000000</f>
         <v>65.4394822375814</v>
       </c>
-      <c s="59" r="F43"/>
+      <c s="58" r="F43"/>
       <c s="53" r="G43">
         <f>SUM(H43:M43)</f>
         <v>11988034.145</v>
@@ -6952,7 +6952,7 @@
         <v>29.5</v>
       </c>
       <c s="27" r="AE43"/>
-      <c s="63" r="AF43">
+      <c s="62" r="AF43">
         <v>11988000</v>
       </c>
       <c s="33" r="AG43"/>
@@ -6973,11 +6973,11 @@
       <c s="13" r="D44">
         <v>3</v>
       </c>
-      <c s="59" r="E44">
+      <c s="58" r="E44">
         <f>((1/(INDEX(E0!J$20:J$44,C44,1)-INDEX(E0!J$20:J$44,D44,1))))*100000000</f>
         <v>65.4464657432681</v>
       </c>
-      <c s="59" r="F44"/>
+      <c s="58" r="F44"/>
       <c s="53" r="G44">
         <f>SUM(H44:M44)</f>
         <v>224300005782.5</v>
@@ -7047,7 +7047,7 @@
       <c s="27" r="AC44"/>
       <c s="27" r="AD44"/>
       <c s="27" r="AE44"/>
-      <c s="63" r="AF44">
+      <c s="62" r="AF44">
         <v>224300000000</v>
       </c>
       <c s="33" r="AG44"/>
@@ -7068,11 +7068,11 @@
       <c s="13" r="D45">
         <v>4</v>
       </c>
-      <c s="59" r="E45">
+      <c s="58" r="E45">
         <f>((1/(INDEX(E0!J$20:J$44,C45,1)-INDEX(E0!J$20:J$44,D45,1))))*100000000</f>
         <v>65.5971342553719</v>
       </c>
-      <c s="59" r="F45"/>
+      <c s="58" r="F45"/>
       <c s="53" r="G45">
         <f>SUM(H45:M45)</f>
         <v>11957036.02046</v>
@@ -7144,7 +7144,7 @@
         <v>35.4</v>
       </c>
       <c s="27" r="AE45"/>
-      <c s="63" r="AF45">
+      <c s="62" r="AF45">
         <v>11957000</v>
       </c>
       <c s="33" r="AG45"/>
@@ -7165,11 +7165,11 @@
       <c s="13" r="D46">
         <v>5</v>
       </c>
-      <c s="59" r="E46">
+      <c s="58" r="E46">
         <f>((1/(INDEX(E0!J$20:J$44,C46,1)-INDEX(E0!J$20:J$44,D46,1))))*100000000</f>
         <v>91888.1170286052</v>
       </c>
-      <c s="59" r="F46"/>
+      <c s="58" r="F46"/>
       <c s="53" r="G46">
         <f>SUM(H46:M46)</f>
         <v>0.01150910912</v>
@@ -7241,7 +7241,7 @@
         <v>0.0113</v>
       </c>
       <c s="27" r="AE46"/>
-      <c s="63" r="AF46"/>
+      <c s="62" r="AF46"/>
       <c s="33" r="AG46"/>
       <c s="27" r="AH46"/>
       <c s="27" r="AI46"/>
@@ -7260,11 +7260,11 @@
       <c s="13" r="D47">
         <v>6</v>
       </c>
-      <c s="59" r="E47">
+      <c s="58" r="E47">
         <f>((1/(INDEX(E0!J$20:J$44,C47,1)-INDEX(E0!J$20:J$44,D47,1))))*100000000</f>
         <v>96200.0962000962</v>
       </c>
-      <c s="59" r="F47"/>
+      <c s="58" r="F47"/>
       <c s="53" r="G47">
         <f>SUM(H47:M47)</f>
         <v>1398.90000000002</v>
@@ -7334,7 +7334,7 @@
       <c s="27" r="AC47"/>
       <c s="27" r="AD47"/>
       <c s="27" r="AE47"/>
-      <c s="63" r="AF47"/>
+      <c s="62" r="AF47"/>
       <c s="27" r="AG47"/>
       <c s="27" r="AH47"/>
       <c s="27" r="AI47"/>
@@ -7353,11 +7353,11 @@
       <c s="13" r="D48">
         <v>1</v>
       </c>
-      <c s="59" r="E48">
+      <c s="58" r="E48">
         <f>((1/(INDEX(E0!J$20:J$44,C48,1)-INDEX(E0!J$20:J$44,D48,1))))*100000000</f>
         <v>10.2381150830871</v>
       </c>
-      <c s="59" r="F48"/>
+      <c s="58" r="F48"/>
       <c s="53" r="G48">
         <f>SUM(H48:M48)</f>
         <v>591510738.89</v>
@@ -7427,7 +7427,7 @@
       <c s="27" r="AC48"/>
       <c s="27" r="AD48"/>
       <c s="27" r="AE48"/>
-      <c s="63" r="AF48"/>
+      <c s="62" r="AF48"/>
       <c s="27" r="AG48"/>
       <c s="27" r="AH48"/>
       <c s="27" r="AI48"/>
@@ -7446,11 +7446,11 @@
       <c s="13" r="D49">
         <v>2</v>
       </c>
-      <c s="59" r="E49">
+      <c s="58" r="E49">
         <f>((1/(INDEX(E0!J$20:J$44,C49,1)-INDEX(E0!J$20:J$44,D49,1))))*100000000</f>
         <v>65.4240678775835</v>
       </c>
-      <c s="59" r="F49"/>
+      <c s="58" r="F49"/>
       <c s="53" r="G49">
         <f>SUM(H49:M49)</f>
         <v>5231.9</v>
@@ -7522,7 +7522,7 @@
       <c s="68" r="AE49">
         <v>15800</v>
       </c>
-      <c s="63" r="AF49">
+      <c s="62" r="AF49">
         <v>5232</v>
       </c>
       <c s="27" r="AG49"/>
@@ -7543,11 +7543,11 @@
       <c s="13" r="D50">
         <v>3</v>
       </c>
-      <c s="59" r="E50">
+      <c s="58" r="E50">
         <f>((1/(INDEX(E0!J$20:J$44,C50,1)-INDEX(E0!J$20:J$44,D50,1))))*100000000</f>
         <v>65.4310480935335</v>
       </c>
-      <c s="59" r="F50"/>
+      <c s="58" r="F50"/>
       <c s="53" r="G50">
         <f>SUM(H50:M50)</f>
         <v>51387001.5705</v>
@@ -7617,7 +7617,7 @@
       <c s="27" r="AC50"/>
       <c s="27" r="AD50"/>
       <c s="27" r="AE50"/>
-      <c s="63" r="AF50">
+      <c s="62" r="AF50">
         <v>51387000</v>
       </c>
       <c s="27" r="AG50"/>
@@ -7638,11 +7638,11 @@
       <c s="13" r="D51">
         <v>4</v>
       </c>
-      <c s="59" r="E51">
+      <c s="58" r="E51">
         <f>((1/(INDEX(E0!J$20:J$44,C51,1)-INDEX(E0!J$20:J$44,D51,1))))*100000000</f>
         <v>65.5816455444011</v>
       </c>
-      <c s="59" r="F51"/>
+      <c s="58" r="F51"/>
       <c s="53" r="G51">
         <f>SUM(H51:M51)</f>
         <v>646700022515.1</v>
@@ -7712,7 +7712,7 @@
       <c s="27" r="AC51"/>
       <c s="27" r="AD51"/>
       <c s="27" r="AE51"/>
-      <c s="63" r="AF51">
+      <c s="62" r="AF51">
         <v>646700000000</v>
       </c>
       <c s="33" r="AG51"/>
@@ -7733,11 +7733,11 @@
       <c s="13" r="D52">
         <v>5</v>
       </c>
-      <c s="59" r="E52">
+      <c s="58" r="E52">
         <f>((1/(INDEX(E0!J$20:J$44,C52,1)-INDEX(E0!J$20:J$44,D52,1))))*100000000</f>
         <v>69045.6196837314</v>
       </c>
-      <c s="59" r="F52"/>
+      <c s="58" r="F52"/>
       <c s="53" r="G52">
         <f>SUM(H52:M52)</f>
         <v>0.000000000013617</v>
@@ -7802,7 +7802,7 @@
       <c s="27" r="AC52"/>
       <c s="27" r="AD52"/>
       <c s="27" r="AE52"/>
-      <c s="63" r="AF52"/>
+      <c s="62" r="AF52"/>
       <c s="33" r="AG52"/>
       <c s="27" r="AH52"/>
       <c s="27" r="AI52"/>
@@ -7821,11 +7821,11 @@
       <c s="13" r="D53">
         <v>6</v>
       </c>
-      <c s="59" r="E53">
+      <c s="58" r="E53">
         <f>((1/(INDEX(E0!J$20:J$44,C53,1)-INDEX(E0!J$20:J$44,D53,1))))*100000000</f>
         <v>71452.1608491482</v>
       </c>
-      <c s="59" r="F53"/>
+      <c s="58" r="F53"/>
       <c s="53" r="G53">
         <f>SUM(H53:M53)</f>
         <v>0.00000028726</v>
@@ -7890,7 +7890,7 @@
       <c s="27" r="AC53"/>
       <c s="27" r="AD53"/>
       <c s="27" r="AE53"/>
-      <c s="63" r="AF53"/>
+      <c s="62" r="AF53"/>
       <c s="33" r="AG53"/>
       <c s="27" r="AH53"/>
       <c s="27" r="AI53"/>
@@ -7909,11 +7909,11 @@
       <c s="13" r="D54">
         <v>7</v>
       </c>
-      <c s="59" r="E54">
+      <c s="58" r="E54">
         <f>((1/(INDEX(E0!J$20:J$44,C54,1)-INDEX(E0!J$20:J$44,D54,1))))*100000000</f>
         <v>276335.078389501</v>
       </c>
-      <c s="59" r="F54"/>
+      <c s="58" r="F54"/>
       <c s="53" r="G54">
         <f>SUM(H54:M54)</f>
         <v>0.00050766006221</v>
@@ -7985,7 +7985,7 @@
         <v>0.000507</v>
       </c>
       <c s="27" r="AE54"/>
-      <c s="63" r="AF54"/>
+      <c s="62" r="AF54"/>
       <c s="33" r="AG54"/>
       <c s="27" r="AH54"/>
       <c s="27" r="AI54"/>
@@ -8004,11 +8004,11 @@
       <c s="13" r="D55">
         <v>8</v>
       </c>
-      <c s="59" r="E55">
+      <c s="58" r="E55">
         <f>((1/(INDEX(E0!J$20:J$44,C55,1)-INDEX(E0!J$20:J$44,D55,1))))*100000000</f>
         <v>277748.61417397</v>
       </c>
-      <c s="59" r="F55"/>
+      <c s="58" r="F55"/>
       <c s="53" r="G55">
         <f>SUM(H55:M55)</f>
         <v>38.6010000000001</v>
@@ -8078,7 +8078,7 @@
       <c s="27" r="AC55"/>
       <c s="27" r="AD55"/>
       <c s="27" r="AE55"/>
-      <c s="63" r="AF55"/>
+      <c s="62" r="AF55"/>
       <c s="33" r="AG55"/>
       <c s="27" r="AH55"/>
       <c s="27" r="AI55"/>
@@ -8097,11 +8097,11 @@
       <c s="13" r="D56">
         <v>1</v>
       </c>
-      <c s="59" r="E56">
+      <c s="58" r="E56">
         <f>((1/(INDEX(E0!J$20:J$44,C56,1)-INDEX(E0!J$20:J$44,D56,1))))*100000000</f>
         <v>9.70846488655187</v>
       </c>
-      <c s="59" r="F56"/>
+      <c s="58" r="F56"/>
       <c s="53" r="G56">
         <f>SUM(H56:M56)</f>
         <v>681170000000</v>
@@ -8171,7 +8171,7 @@
       <c s="27" r="AC56"/>
       <c s="27" r="AD56"/>
       <c s="27" r="AE56"/>
-      <c s="63" r="AF56">
+      <c s="62" r="AF56">
         <v>681170000000</v>
       </c>
       <c s="27" r="AG56"/>
@@ -8192,11 +8192,11 @@
       <c s="13" r="D57">
         <v>2</v>
       </c>
-      <c s="59" r="E57">
+      <c s="58" r="E57">
         <f>((1/(INDEX(E0!J$20:J$44,C57,1)-INDEX(E0!J$20:J$44,D57,1))))*100000000</f>
         <v>48.5117523382677</v>
       </c>
-      <c s="59" r="F57"/>
+      <c s="58" r="F57"/>
       <c s="53" r="G57">
         <f>SUM(H57:M57)</f>
         <v>3.8823</v>
@@ -8266,7 +8266,7 @@
         <v>3.78</v>
       </c>
       <c s="27" r="AE57"/>
-      <c s="63" r="AF57"/>
+      <c s="62" r="AF57"/>
       <c s="27" r="AG57"/>
       <c s="27" r="AH57"/>
       <c s="27" r="AI57"/>
@@ -8285,11 +8285,11 @@
       <c s="13" r="D58">
         <v>3</v>
       </c>
-      <c s="59" r="E58">
+      <c s="58" r="E58">
         <f>((1/(INDEX(E0!J$20:J$44,C58,1)-INDEX(E0!J$20:J$44,D58,1))))*100000000</f>
         <v>48.515590079767</v>
       </c>
-      <c s="59" r="F58"/>
+      <c s="58" r="F58"/>
       <c s="53" r="G58">
         <f>SUM(H58:M58)</f>
         <v>97011000000</v>
@@ -8359,7 +8359,7 @@
       <c s="27" r="AC58"/>
       <c s="27" r="AD58"/>
       <c s="27" r="AE58"/>
-      <c s="63" r="AF58"/>
+      <c s="62" r="AF58"/>
       <c s="27" r="AG58"/>
       <c s="27" r="AH58"/>
       <c s="27" r="AI58"/>
@@ -8378,11 +8378,11 @@
       <c s="13" r="D59">
         <v>4</v>
       </c>
-      <c s="59" r="E59">
+      <c s="58" r="E59">
         <f>((1/(INDEX(E0!J$20:J$44,C59,1)-INDEX(E0!J$20:J$44,D59,1))))*100000000</f>
         <v>48.5983374431003</v>
       </c>
-      <c s="59" r="F59"/>
+      <c s="58" r="F59"/>
       <c s="53" r="G59">
         <f>SUM(H59:M59)</f>
         <v>10279075.573</v>
@@ -8454,7 +8454,7 @@
         <v>83.8</v>
       </c>
       <c s="27" r="AE59"/>
-      <c s="63" r="AF59"/>
+      <c s="62" r="AF59"/>
       <c s="27" r="AG59"/>
       <c s="27" r="AH59"/>
       <c s="27" r="AI59"/>
@@ -8473,11 +8473,11 @@
       <c s="13" r="D60">
         <v>5</v>
       </c>
-      <c s="59" r="E60">
+      <c s="58" r="E60">
         <f>((1/(INDEX(E0!J$20:J$44,C60,1)-INDEX(E0!J$20:J$44,D60,1))))*100000000</f>
         <v>187.155516876749</v>
       </c>
-      <c s="59" r="F60"/>
+      <c s="58" r="F60"/>
       <c s="53" r="G60">
         <f>SUM(H60:M60)</f>
         <v>0.064568</v>
@@ -8547,7 +8547,7 @@
         <v>0.0637</v>
       </c>
       <c s="27" r="AE60"/>
-      <c s="63" r="AF60"/>
+      <c s="62" r="AF60"/>
       <c s="33" r="AG60"/>
       <c s="27" r="AH60"/>
       <c s="27" r="AI60"/>
@@ -8566,11 +8566,11 @@
       <c s="13" r="D61">
         <v>6</v>
       </c>
-      <c s="59" r="E61">
+      <c s="58" r="E61">
         <f>((1/(INDEX(E0!J$20:J$44,C61,1)-INDEX(E0!J$20:J$44,D61,1))))*100000000</f>
         <v>187.172604698834</v>
       </c>
-      <c s="59" r="F61"/>
+      <c s="58" r="F61"/>
       <c s="53" r="G61">
         <f>SUM(H61:M61)</f>
         <v>30763000000</v>
@@ -8640,7 +8640,7 @@
       <c s="27" r="AC61"/>
       <c s="27" r="AD61"/>
       <c s="27" r="AE61"/>
-      <c s="63" r="AF61"/>
+      <c s="62" r="AF61"/>
       <c s="33" r="AG61"/>
       <c s="27" r="AH61"/>
       <c s="27" r="AI61"/>
@@ -8659,11 +8659,11 @@
       <c s="13" r="D62">
         <v>7</v>
       </c>
-      <c s="59" r="E62">
+      <c s="58" r="E62">
         <f>((1/(INDEX(E0!J$20:J$44,C62,1)-INDEX(E0!J$20:J$44,D62,1))))*100000000</f>
         <v>187.536841014644</v>
       </c>
-      <c s="59" r="F62"/>
+      <c s="58" r="F62"/>
       <c s="53" r="G62">
         <f>SUM(H62:M62)</f>
         <v>3534100000.44397</v>
@@ -8733,7 +8733,7 @@
       <c s="27" r="AC62"/>
       <c s="27" r="AD62"/>
       <c s="27" r="AE62"/>
-      <c s="63" r="AF62"/>
+      <c s="62" r="AF62"/>
       <c s="33" r="AG62"/>
       <c s="27" r="AH62"/>
       <c s="27" r="AI62"/>
@@ -8752,11 +8752,11 @@
       <c s="13" r="D63">
         <v>8</v>
       </c>
-      <c s="59" r="E63">
+      <c s="58" r="E63">
         <f>((1/(INDEX(E0!J$20:J$44,C63,1)-INDEX(E0!J$20:J$44,D63,1))))*100000000</f>
         <v>187.537488744</v>
       </c>
-      <c s="59" r="F63"/>
+      <c s="58" r="F63"/>
       <c s="53" r="G63">
         <f>SUM(H63:M63)</f>
         <v>2555105.4009</v>
@@ -8828,7 +8828,7 @@
         <v>5.51</v>
       </c>
       <c s="27" r="AE63"/>
-      <c s="63" r="AF63"/>
+      <c s="62" r="AF63"/>
       <c s="33" r="AG63"/>
       <c s="27" r="AH63"/>
       <c s="27" r="AI63"/>
@@ -8847,11 +8847,11 @@
       <c s="13" r="D64">
         <v>9</v>
       </c>
-      <c s="59" r="E64">
+      <c s="58" r="E64">
         <f>((1/(INDEX(E0!J$20:J$44,C64,1)-INDEX(E0!J$20:J$44,D64,1))))*100000000</f>
         <v>187.664200709901</v>
       </c>
-      <c s="59" r="F64"/>
+      <c s="58" r="F64"/>
       <c s="53" r="G64">
         <f>SUM(H64:M64)</f>
         <v>51.5535</v>
@@ -8923,7 +8923,7 @@
       <c s="68" r="AE64">
         <v>18.8</v>
       </c>
-      <c s="63" r="AF64"/>
+      <c s="62" r="AF64"/>
       <c s="33" r="AG64"/>
       <c s="27" r="AH64"/>
       <c s="27" r="AI64"/>
@@ -8942,11 +8942,11 @@
       <c s="13" r="D65">
         <v>1</v>
       </c>
-      <c s="59" r="E65">
+      <c s="58" r="E65">
         <f>((1/(INDEX(E0!J$20:J$44,C65,1)-INDEX(E0!J$20:J$44,D65,1))))*100000000</f>
         <v>9.70844542307991</v>
       </c>
-      <c s="59" r="F65"/>
+      <c s="58" r="F65"/>
       <c s="53" r="G65">
         <f>SUM(H65:M65)</f>
         <v>5330.1</v>
@@ -9016,7 +9016,7 @@
         <v>6430</v>
       </c>
       <c s="27" r="AE65"/>
-      <c s="63" r="AF65"/>
+      <c s="62" r="AF65"/>
       <c s="33" r="AG65"/>
       <c s="27" r="AH65"/>
       <c s="27" r="AI65"/>
@@ -9035,11 +9035,11 @@
       <c s="13" r="D66">
         <v>2</v>
       </c>
-      <c s="59" r="E66">
+      <c s="58" r="E66">
         <f>((1/(INDEX(E0!J$20:J$44,C66,1)-INDEX(E0!J$20:J$44,D66,1))))*100000000</f>
         <v>48.5112663680772</v>
       </c>
-      <c s="59" r="F66"/>
+      <c s="58" r="F66"/>
       <c s="53" r="G66">
         <f>SUM(H66:M66)</f>
         <v>8626200000</v>
@@ -9109,7 +9109,7 @@
       <c s="27" r="AC66"/>
       <c s="27" r="AD66"/>
       <c s="27" r="AE66"/>
-      <c s="63" r="AF66"/>
+      <c s="62" r="AF66"/>
       <c s="33" r="AG66"/>
       <c s="27" r="AH66"/>
       <c s="27" r="AI66"/>
@@ -9128,11 +9128,11 @@
       <c s="13" r="D67">
         <v>3</v>
       </c>
-      <c s="59" r="E67">
+      <c s="58" r="E67">
         <f>((1/(INDEX(E0!J$20:J$44,C67,1)-INDEX(E0!J$20:J$44,D67,1))))*100000000</f>
         <v>48.5151040326841</v>
       </c>
-      <c s="59" r="F67"/>
+      <c s="58" r="F67"/>
       <c s="53" r="G67">
         <f>SUM(H67:M67)</f>
         <v>16.307</v>
@@ -9202,7 +9202,7 @@
         <v>16.5</v>
       </c>
       <c s="27" r="AE67"/>
-      <c s="63" r="AF67"/>
+      <c s="62" r="AF67"/>
       <c s="33" r="AG67"/>
       <c s="27" r="AH67"/>
       <c s="27" r="AI67"/>
@@ -9221,11 +9221,11 @@
       <c s="13" r="D68">
         <v>4</v>
       </c>
-      <c s="59" r="E68">
+      <c s="58" r="E68">
         <f>((1/(INDEX(E0!J$20:J$44,C68,1)-INDEX(E0!J$20:J$44,D68,1))))*100000000</f>
         <v>48.5978497366247</v>
       </c>
-      <c s="59" r="F68"/>
+      <c s="58" r="F68"/>
       <c s="53" r="G68">
         <f>SUM(H68:M68)</f>
         <v>17432000815.67</v>
@@ -9295,7 +9295,7 @@
       <c s="27" r="AC68"/>
       <c s="27" r="AD68"/>
       <c s="27" r="AE68"/>
-      <c s="63" r="AF68"/>
+      <c s="62" r="AF68"/>
       <c s="33" r="AG68"/>
       <c s="27" r="AH68"/>
       <c s="27" r="AI68"/>
@@ -9314,11 +9314,11 @@
       <c s="13" r="D69">
         <v>5</v>
       </c>
-      <c s="59" r="E69">
+      <c s="58" r="E69">
         <f>((1/(INDEX(E0!J$20:J$44,C69,1)-INDEX(E0!J$20:J$44,D69,1))))*100000000</f>
         <v>187.148284042062</v>
       </c>
-      <c s="59" r="F69"/>
+      <c s="58" r="F69"/>
       <c s="53" r="G69">
         <f>SUM(H69:M69)</f>
         <v>6137800000</v>
@@ -9388,7 +9388,7 @@
       <c s="27" r="AC69"/>
       <c s="27" r="AD69"/>
       <c s="27" r="AE69"/>
-      <c s="63" r="AF69"/>
+      <c s="62" r="AF69"/>
       <c s="33" r="AG69"/>
       <c s="27" r="AH69"/>
       <c s="27" r="AI69"/>
@@ -9407,11 +9407,11 @@
       <c s="13" r="D70">
         <v>6</v>
       </c>
-      <c s="59" r="E70">
+      <c s="58" r="E70">
         <f>((1/(INDEX(E0!J$20:J$44,C70,1)-INDEX(E0!J$20:J$44,D70,1))))*100000000</f>
         <v>187.165370543357</v>
       </c>
-      <c s="59" r="F70"/>
+      <c s="58" r="F70"/>
       <c s="53" r="G70">
         <f>SUM(H70:M70)</f>
         <v>0.20615</v>
@@ -9481,7 +9481,7 @@
         <v>0.203</v>
       </c>
       <c s="27" r="AE70"/>
-      <c s="63" r="AF70"/>
+      <c s="62" r="AF70"/>
       <c s="33" r="AG70"/>
       <c s="27" r="AH70"/>
       <c s="27" r="AI70"/>
@@ -9500,11 +9500,11 @@
       <c s="13" r="D71">
         <v>7</v>
       </c>
-      <c s="59" r="E71">
+      <c s="58" r="E71">
         <f>((1/(INDEX(E0!J$20:J$44,C71,1)-INDEX(E0!J$20:J$44,D71,1))))*100000000</f>
         <v>187.529578677106</v>
       </c>
-      <c s="59" r="F71"/>
+      <c s="58" r="F71"/>
       <c s="53" r="G71">
         <f>SUM(H71:M71)</f>
         <v>413360.000068381</v>
@@ -9576,7 +9576,7 @@
         <v>0.0000243</v>
       </c>
       <c s="27" r="AE71"/>
-      <c s="63" r="AF71"/>
+      <c s="62" r="AF71"/>
       <c s="33" r="AG71"/>
       <c s="27" r="AH71"/>
       <c s="27" r="AI71"/>
@@ -9595,11 +9595,11 @@
       <c s="13" r="D72">
         <v>8</v>
       </c>
-      <c s="59" r="E72">
+      <c s="58" r="E72">
         <f>((1/(INDEX(E0!J$20:J$44,C72,1)-INDEX(E0!J$20:J$44,D72,1))))*100000000</f>
         <v>187.530226356297</v>
       </c>
-      <c s="59" r="F72"/>
+      <c s="58" r="F72"/>
       <c s="53" r="G72">
         <f>SUM(H72:M72)</f>
         <v>12399000038.935</v>
@@ -9669,7 +9669,7 @@
       <c s="27" r="AC72"/>
       <c s="27" r="AD72"/>
       <c s="27" r="AE72"/>
-      <c s="63" r="AF72"/>
+      <c s="62" r="AF72"/>
       <c s="33" r="AG72"/>
       <c s="27" r="AH72"/>
       <c s="27" r="AI72"/>
@@ -9688,11 +9688,11 @@
       <c s="13" r="D73">
         <v>9</v>
       </c>
-      <c s="59" r="E73">
+      <c s="58" r="E73">
         <f>((1/(INDEX(E0!J$20:J$44,C73,1)-INDEX(E0!J$20:J$44,D73,1))))*100000000</f>
         <v>187.656928505233</v>
       </c>
-      <c s="59" r="F73"/>
+      <c s="58" r="F73"/>
       <c s="53" r="G73">
         <f>SUM(H73:M73)</f>
         <v>620400.002305</v>
@@ -9762,7 +9762,7 @@
       <c s="27" r="AC73"/>
       <c s="27" r="AD73"/>
       <c s="27" r="AE73"/>
-      <c s="63" r="AF73"/>
+      <c s="62" r="AF73"/>
       <c s="33" r="AG73"/>
       <c s="27" r="AH73"/>
       <c s="27" r="AI73"/>
@@ -9781,11 +9781,11 @@
       <c s="13" r="D74">
         <v>1</v>
       </c>
-      <c s="59" r="E74">
+      <c s="58" r="E74">
         <f>((1/(INDEX(E0!J$20:J$44,C74,1)-INDEX(E0!J$20:J$44,D74,1))))*100000000</f>
         <v>9.7080329562645</v>
       </c>
-      <c s="59" r="F74"/>
+      <c s="58" r="F74"/>
       <c s="53" r="G74">
         <f>SUM(H74:M74)</f>
         <v>326430043.289</v>
@@ -9857,7 +9857,7 @@
         <v>107</v>
       </c>
       <c s="27" r="AE74"/>
-      <c s="63" r="AF74"/>
+      <c s="62" r="AF74"/>
       <c s="33" r="AG74"/>
       <c s="27" r="AH74"/>
       <c s="27" r="AI74"/>
@@ -9876,11 +9876,11 @@
       <c s="13" r="D75">
         <v>2</v>
       </c>
-      <c s="59" r="E75">
+      <c s="58" r="E75">
         <f>((1/(INDEX(E0!J$20:J$44,C75,1)-INDEX(E0!J$20:J$44,D75,1))))*100000000</f>
         <v>48.5009695957359</v>
       </c>
-      <c s="59" r="F75"/>
+      <c s="58" r="F75"/>
       <c s="53" r="G75">
         <f>SUM(H75:M75)</f>
         <v>172580000323.38</v>
@@ -9950,7 +9950,7 @@
       <c s="27" r="AC75"/>
       <c s="27" r="AD75"/>
       <c s="27" r="AE75"/>
-      <c s="63" r="AF75"/>
+      <c s="62" r="AF75"/>
       <c s="33" r="AG75"/>
       <c s="27" r="AH75"/>
       <c s="27" r="AI75"/>
@@ -9969,11 +9969,11 @@
       <c s="13" r="D76">
         <v>3</v>
       </c>
-      <c s="59" r="E76">
+      <c s="58" r="E76">
         <f>((1/(INDEX(E0!J$20:J$44,C76,1)-INDEX(E0!J$20:J$44,D76,1))))*100000000</f>
         <v>48.5048056313222</v>
       </c>
-      <c s="59" r="F76"/>
+      <c s="58" r="F76"/>
       <c s="53" r="G76">
         <f>SUM(H76:M76)</f>
         <v>5219900.60875</v>
@@ -10064,11 +10064,11 @@
       <c s="13" r="D77">
         <v>4</v>
       </c>
-      <c s="59" r="E77">
+      <c s="58" r="E77">
         <f>((1/(INDEX(E0!J$20:J$44,C77,1)-INDEX(E0!J$20:J$44,D77,1))))*100000000</f>
         <v>48.5875161798433</v>
       </c>
-      <c s="59" r="F77"/>
+      <c s="58" r="F77"/>
       <c s="53" r="G77">
         <f>SUM(H77:M77)</f>
         <v>34357000000.0031</v>
@@ -10157,11 +10157,11 @@
       <c s="13" r="D78">
         <v>5</v>
       </c>
-      <c s="59" r="E78">
+      <c s="58" r="E78">
         <f>((1/(INDEX(E0!J$20:J$44,C78,1)-INDEX(E0!J$20:J$44,D78,1))))*100000000</f>
         <v>186.995131493863</v>
       </c>
-      <c s="59" r="F78"/>
+      <c s="58" r="F78"/>
       <c s="53" r="G78">
         <f>SUM(H78:M78)</f>
         <v>58680000007.4069</v>
@@ -10250,11 +10250,11 @@
       <c s="13" r="D79">
         <v>6</v>
       </c>
-      <c s="59" r="E79">
+      <c s="58" r="E79">
         <f>((1/(INDEX(E0!J$20:J$44,C79,1)-INDEX(E0!J$20:J$44,D79,1))))*100000000</f>
         <v>187.012190039895</v>
       </c>
-      <c s="59" r="F79"/>
+      <c s="58" r="F79"/>
       <c s="53" r="G79">
         <f>SUM(H79:M79)</f>
         <v>3781300.0054281</v>
@@ -10345,11 +10345,11 @@
       <c s="13" r="D80">
         <v>7</v>
       </c>
-      <c s="59" r="E80">
+      <c s="58" r="E80">
         <f>((1/(INDEX(E0!J$20:J$44,C80,1)-INDEX(E0!J$20:J$44,D80,1))))*100000000</f>
         <v>187.375801685657</v>
       </c>
-      <c s="59" r="F80"/>
+      <c s="58" r="F80"/>
       <c s="53" r="G80">
         <f>SUM(H80:M80)</f>
         <v>833690.18288409</v>
@@ -10440,11 +10440,11 @@
       <c s="13" r="D81">
         <v>8</v>
       </c>
-      <c s="59" r="E81">
+      <c s="58" r="E81">
         <f>((1/(INDEX(E0!J$20:J$44,C81,1)-INDEX(E0!J$20:J$44,D81,1))))*100000000</f>
         <v>187.376448303069</v>
       </c>
-      <c s="59" r="F81"/>
+      <c s="58" r="F81"/>
       <c s="53" r="G81">
         <f>SUM(H81:M81)</f>
         <v>11744000125.84</v>
@@ -10533,11 +10533,11 @@
       <c s="13" r="D82">
         <v>9</v>
       </c>
-      <c s="59" r="E82">
+      <c s="58" r="E82">
         <f>((1/(INDEX(E0!J$20:J$44,C82,1)-INDEX(E0!J$20:J$44,D82,1))))*100000000</f>
         <v>187.502942671182</v>
       </c>
-      <c s="59" r="F82"/>
+      <c s="58" r="F82"/>
       <c s="53" r="G82">
         <f>SUM(H82:M82)</f>
         <v>357010.545095923</v>
@@ -10628,11 +10628,11 @@
       <c s="13" r="D83">
         <v>10</v>
       </c>
-      <c s="59" r="E83">
+      <c s="58" r="E83">
         <f>((1/(INDEX(E0!J$20:J$44,C83,1)-INDEX(E0!J$20:J$44,D83,1))))*100000000</f>
         <v>218206.733422734</v>
       </c>
-      <c s="59" r="F83"/>
+      <c s="58" r="F83"/>
       <c s="53" r="G83">
         <f>SUM(H83:M83)</f>
         <v>280.23</v>
@@ -10721,11 +10721,11 @@
       <c s="13" r="D84">
         <v>11</v>
       </c>
-      <c s="59" r="E84">
+      <c s="58" r="E84">
         <f>((1/(INDEX(E0!J$20:J$44,C84,1)-INDEX(E0!J$20:J$44,D84,1))))*100000000</f>
         <v>228503.00824159</v>
       </c>
-      <c s="59" r="F84"/>
+      <c s="58" r="F84"/>
       <c s="53" r="G84">
         <f>SUM(H84:M84)</f>
         <v>0.000000012981205</v>
@@ -10809,11 +10809,11 @@
       <c s="13" r="D85">
         <v>1</v>
       </c>
-      <c s="59" r="E85">
+      <c s="58" r="E85">
         <f>((1/(INDEX(E0!J$20:J$44,C85,1)-INDEX(E0!J$20:J$44,D85,1))))*100000000</f>
         <v>9.70803221266437</v>
       </c>
-      <c s="59" r="F85"/>
+      <c s="58" r="F85"/>
       <c s="53" r="G85">
         <f>SUM(H85:M85)</f>
         <v>681880797620</v>
@@ -10904,11 +10904,11 @@
       <c s="13" r="D86">
         <v>2</v>
       </c>
-      <c s="59" r="E86">
+      <c s="58" r="E86">
         <f>((1/(INDEX(E0!J$20:J$44,C86,1)-INDEX(E0!J$20:J$44,D86,1))))*100000000</f>
         <v>48.5009510357485</v>
       </c>
-      <c s="59" r="F86"/>
+      <c s="58" r="F86"/>
       <c s="53" r="G86">
         <f>SUM(H86:M86)</f>
         <v>5168717.554</v>
@@ -10999,11 +10999,11 @@
       <c s="13" r="D87">
         <v>3</v>
       </c>
-      <c s="59" r="E87">
+      <c s="58" r="E87">
         <f>((1/(INDEX(E0!J$20:J$44,C87,1)-INDEX(E0!J$20:J$44,D87,1))))*100000000</f>
         <v>48.5047870683987</v>
       </c>
-      <c s="59" r="F87"/>
+      <c s="58" r="F87"/>
       <c s="53" r="G87">
         <f>SUM(H87:M87)</f>
         <v>96715004537.8</v>
@@ -11092,11 +11092,11 @@
       <c s="13" r="D88">
         <v>4</v>
       </c>
-      <c s="59" r="E88">
+      <c s="58" r="E88">
         <f>((1/(INDEX(E0!J$20:J$44,C88,1)-INDEX(E0!J$20:J$44,D88,1))))*100000000</f>
         <v>48.5874975535588</v>
       </c>
-      <c s="59" r="F88"/>
+      <c s="58" r="F88"/>
       <c s="53" r="G88">
         <f>SUM(H88:M88)</f>
         <v>5145928.26927</v>
@@ -11187,11 +11187,11 @@
       <c s="13" r="D89">
         <v>5</v>
       </c>
-      <c s="59" r="E89">
+      <c s="58" r="E89">
         <f>((1/(INDEX(E0!J$20:J$44,C89,1)-INDEX(E0!J$20:J$44,D89,1))))*100000000</f>
         <v>186.994855603227</v>
       </c>
-      <c s="59" r="F89"/>
+      <c s="58" r="F89"/>
       <c s="53" r="G89">
         <f>SUM(H89:M89)</f>
         <v>1278501.9382</v>
@@ -11282,11 +11282,11 @@
       <c s="13" r="D90">
         <v>6</v>
       </c>
-      <c s="59" r="E90">
+      <c s="58" r="E90">
         <f>((1/(INDEX(E0!J$20:J$44,C90,1)-INDEX(E0!J$20:J$44,D90,1))))*100000000</f>
         <v>187.01191409892</v>
       </c>
-      <c s="59" r="F90"/>
+      <c s="58" r="F90"/>
       <c s="53" r="G90">
         <f>SUM(H90:M90)</f>
         <v>30584000096.562</v>
@@ -11375,11 +11375,11 @@
       <c s="13" r="D91">
         <v>7</v>
       </c>
-      <c s="59" r="E91">
+      <c s="58" r="E91">
         <f>((1/(INDEX(E0!J$20:J$44,C91,1)-INDEX(E0!J$20:J$44,D91,1))))*100000000</f>
         <v>187.375524670605</v>
       </c>
-      <c s="59" r="F91"/>
+      <c s="58" r="F91"/>
       <c s="53" r="G91">
         <f>SUM(H91:M91)</f>
         <v>348090028.196</v>
@@ -11468,11 +11468,11 @@
       <c s="13" r="D92">
         <v>8</v>
       </c>
-      <c s="59" r="E92">
+      <c s="58" r="E92">
         <f>((1/(INDEX(E0!J$20:J$44,C92,1)-INDEX(E0!J$20:J$44,D92,1))))*100000000</f>
         <v>187.376171286105</v>
       </c>
-      <c s="59" r="F92"/>
+      <c s="58" r="F92"/>
       <c s="53" r="G92">
         <f>SUM(H92:M92)</f>
         <v>1276400.4710416</v>
@@ -11563,11 +11563,11 @@
       <c s="13" r="D93">
         <v>9</v>
       </c>
-      <c s="59" r="E93">
+      <c s="58" r="E93">
         <f>((1/(INDEX(E0!J$20:J$44,C93,1)-INDEX(E0!J$20:J$44,D93,1))))*100000000</f>
         <v>187.502665280073</v>
       </c>
-      <c s="59" r="F93"/>
+      <c s="58" r="F93"/>
       <c s="53" r="G93">
         <f>SUM(H93:M93)</f>
         <v>3146900031.58</v>
@@ -11656,11 +11656,11 @@
       <c s="13" r="D94">
         <v>10</v>
       </c>
-      <c s="59" r="E94">
+      <c s="58" r="E94">
         <f>((1/(INDEX(E0!J$20:J$44,C94,1)-INDEX(E0!J$20:J$44,D94,1))))*100000000</f>
         <v>217831.703225946</v>
       </c>
-      <c s="59" r="F94"/>
+      <c s="58" r="F94"/>
       <c s="53" r="G94">
         <f>SUM(H94:M94)</f>
         <v>0.000863986207</v>
@@ -11751,11 +11751,11 @@
       <c s="13" r="D95">
         <v>11</v>
       </c>
-      <c s="59" r="E95">
+      <c s="58" r="E95">
         <f>((1/(INDEX(E0!J$20:J$44,C95,1)-INDEX(E0!J$20:J$44,D95,1))))*100000000</f>
         <v>228091.784133974</v>
       </c>
-      <c s="59" r="F95"/>
+      <c s="58" r="F95"/>
       <c s="53" r="G95">
         <f>SUM(H95:M95)</f>
         <v>350.100000000001</v>
@@ -11844,11 +11844,11 @@
       <c s="13" r="D96">
         <v>1</v>
       </c>
-      <c s="59" r="E96">
+      <c s="58" r="E96">
         <f>((1/(INDEX(E0!J$20:J$44,C96,1)-INDEX(E0!J$20:J$44,D96,1))))*100000000</f>
         <v>9.70788931820766</v>
       </c>
-      <c s="59" r="F96"/>
+      <c s="58" r="F96"/>
       <c s="53" r="G96">
         <f>SUM(H96:M96)</f>
         <v>30974.0016259</v>
@@ -11937,11 +11937,11 @@
       <c s="13" r="D97">
         <v>2</v>
       </c>
-      <c s="59" r="E97">
+      <c s="58" r="E97">
         <f>((1/(INDEX(E0!J$20:J$44,C97,1)-INDEX(E0!J$20:J$44,D97,1))))*100000000</f>
         <v>48.4973846531668</v>
       </c>
-      <c s="59" r="F97"/>
+      <c s="58" r="F97"/>
       <c s="53" r="G97">
         <f>SUM(H97:M97)</f>
         <v>48068000.054528</v>
@@ -12030,11 +12030,11 @@
       <c s="13" r="D98">
         <v>3</v>
       </c>
-      <c s="59" r="E98">
+      <c s="58" r="E98">
         <f>((1/(INDEX(E0!J$20:J$44,C98,1)-INDEX(E0!J$20:J$44,D98,1))))*100000000</f>
         <v>48.5012201216715</v>
       </c>
-      <c s="59" r="F98"/>
+      <c s="58" r="F98"/>
       <c s="53" r="G98">
         <f>SUM(H98:M98)</f>
         <v>12285.000083561</v>
@@ -12123,11 +12123,11 @@
       <c s="13" r="D99">
         <v>4</v>
       </c>
-      <c s="59" r="E99">
+      <c s="58" r="E99">
         <f>((1/(INDEX(E0!J$20:J$44,C99,1)-INDEX(E0!J$20:J$44,D99,1))))*100000000</f>
         <v>48.5839184321756</v>
       </c>
-      <c s="59" r="F99"/>
+      <c s="58" r="F99"/>
       <c s="53" r="G99">
         <f>SUM(H99:M99)</f>
         <v>13728000.452755</v>
@@ -12218,11 +12218,11 @@
       <c s="13" r="D100">
         <v>5</v>
       </c>
-      <c s="59" r="E100">
+      <c s="58" r="E100">
         <f>((1/(INDEX(E0!J$20:J$44,C100,1)-INDEX(E0!J$20:J$44,D100,1))))*100000000</f>
         <v>186.941853200316</v>
       </c>
-      <c s="59" r="F100"/>
+      <c s="58" r="F100"/>
       <c s="53" r="G100">
         <f>SUM(H100:M100)</f>
         <v>4538900.00034661</v>
@@ -12311,11 +12311,11 @@
       <c s="13" r="D101">
         <v>6</v>
       </c>
-      <c s="59" r="E101">
+      <c s="58" r="E101">
         <f>((1/(INDEX(E0!J$20:J$44,C101,1)-INDEX(E0!J$20:J$44,D101,1))))*100000000</f>
         <v>186.958902026713</v>
       </c>
-      <c s="59" r="F101"/>
+      <c s="58" r="F101"/>
       <c s="53" r="G101">
         <f>SUM(H101:M101)</f>
         <v>113.30000039055</v>
@@ -12404,11 +12404,11 @@
       <c s="13" r="D102">
         <v>7</v>
       </c>
-      <c s="59" r="E102">
+      <c s="58" r="E102">
         <f>((1/(INDEX(E0!J$20:J$44,C102,1)-INDEX(E0!J$20:J$44,D102,1))))*100000000</f>
         <v>187.322306282705</v>
       </c>
-      <c s="59" r="F102"/>
+      <c s="58" r="F102"/>
       <c s="53" r="G102">
         <f>SUM(H102:M102)</f>
         <v>128840000128.872</v>
@@ -12497,11 +12497,11 @@
       <c s="13" r="D103">
         <v>8</v>
       </c>
-      <c s="59" r="E103">
+      <c s="58" r="E103">
         <f>((1/(INDEX(E0!J$20:J$44,C103,1)-INDEX(E0!J$20:J$44,D103,1))))*100000000</f>
         <v>187.322952530953</v>
       </c>
-      <c s="59" r="F103"/>
+      <c s="58" r="F103"/>
       <c s="53" r="G103">
         <f>SUM(H103:M103)</f>
         <v>1288100.01459862</v>
@@ -12592,11 +12592,11 @@
       <c s="13" r="D104">
         <v>9</v>
       </c>
-      <c s="59" r="E104">
+      <c s="58" r="E104">
         <f>((1/(INDEX(E0!J$20:J$44,C104,1)-INDEX(E0!J$20:J$44,D104,1))))*100000000</f>
         <v>187.449374657001</v>
       </c>
-      <c s="59" r="F104"/>
+      <c s="58" r="F104"/>
       <c s="53" r="G104">
         <f>SUM(H104:M104)</f>
         <v>9194000021.54</v>
@@ -12685,11 +12685,11 @@
       <c s="13" r="D105">
         <v>10</v>
       </c>
-      <c s="59" r="E105">
+      <c s="58" r="E105">
         <f>((1/(INDEX(E0!J$20:J$44,C105,1)-INDEX(E0!J$20:J$44,D105,1))))*100000000</f>
         <v>163748.933584666</v>
       </c>
-      <c s="59" r="F105"/>
+      <c s="58" r="F105"/>
       <c s="53" r="G105">
         <f>SUM(H105:M105)</f>
         <v>0.000000025499</v>
@@ -12773,11 +12773,11 @@
       <c s="13" r="D106">
         <v>11</v>
       </c>
-      <c s="59" r="E106">
+      <c s="58" r="E106">
         <f>((1/(INDEX(E0!J$20:J$44,C106,1)-INDEX(E0!J$20:J$44,D106,1))))*100000000</f>
         <v>169479.748017185</v>
       </c>
-      <c s="59" r="F106"/>
+      <c s="58" r="F106"/>
       <c s="53" r="G106">
         <f>SUM(H106:M106)</f>
         <v>0</v>
@@ -12861,11 +12861,11 @@
       <c s="13" r="D107">
         <v>12</v>
       </c>
-      <c s="59" r="E107">
+      <c s="58" r="E107">
         <f>((1/(INDEX(E0!J$20:J$44,C107,1)-INDEX(E0!J$20:J$44,D107,1))))*100000000</f>
         <v>656124.926185304</v>
       </c>
-      <c s="59" r="F107"/>
+      <c s="58" r="F107"/>
       <c s="53" r="G107">
         <f>SUM(H107:M107)</f>
         <v>7.2175</v>
@@ -12954,11 +12954,11 @@
       <c s="13" r="D108">
         <v>13</v>
       </c>
-      <c s="59" r="E108">
+      <c s="58" r="E108">
         <f>((1/(INDEX(E0!J$20:J$44,C108,1)-INDEX(E0!J$20:J$44,D108,1))))*100000000</f>
         <v>659539.245877576</v>
       </c>
-      <c s="59" r="F108"/>
+      <c s="58" r="F108"/>
       <c s="53" r="G108">
         <f>SUM(H108:M108)</f>
         <v>0.000000000007062</v>
@@ -13042,11 +13042,11 @@
       <c s="13" r="D109">
         <v>1</v>
       </c>
-      <c s="59" r="E109">
+      <c s="58" r="E109">
         <f>((1/(INDEX(E0!J$20:J$44,C109,1)-INDEX(E0!J$20:J$44,D109,1))))*100000000</f>
         <v>9.7078890590391</v>
       </c>
-      <c s="59" r="F109"/>
+      <c s="58" r="F109"/>
       <c s="53" r="G109">
         <f>SUM(H109:M109)</f>
         <v>325640452.36</v>
@@ -13135,11 +13135,11 @@
       <c s="13" r="D110">
         <v>2</v>
       </c>
-      <c s="59" r="E110">
+      <c s="58" r="E110">
         <f>((1/(INDEX(E0!J$20:J$44,C110,1)-INDEX(E0!J$20:J$44,D110,1))))*100000000</f>
         <v>48.4973781851778</v>
       </c>
-      <c s="59" r="F110"/>
+      <c s="58" r="F110"/>
       <c s="53" r="G110">
         <f>SUM(H110:M110)</f>
         <v>2304.21769</v>
@@ -13230,11 +13230,11 @@
       <c s="13" r="D111">
         <v>3</v>
       </c>
-      <c s="59" r="E111">
+      <c s="58" r="E111">
         <f>((1/(INDEX(E0!J$20:J$44,C111,1)-INDEX(E0!J$20:J$44,D111,1))))*100000000</f>
         <v>48.5012136526594</v>
       </c>
-      <c s="59" r="F111"/>
+      <c s="58" r="F111"/>
       <c s="53" r="G111">
         <f>SUM(H111:M111)</f>
         <v>5246800.29159</v>
@@ -13323,11 +13323,11 @@
       <c s="13" r="D112">
         <v>4</v>
       </c>
-      <c s="59" r="E112">
+      <c s="58" r="E112">
         <f>((1/(INDEX(E0!J$20:J$44,C112,1)-INDEX(E0!J$20:J$44,D112,1))))*100000000</f>
         <v>48.5839119410844</v>
       </c>
-      <c s="59" r="F112"/>
+      <c s="58" r="F112"/>
       <c s="53" r="G112">
         <f>SUM(H112:M112)</f>
         <v>206360012500</v>
@@ -13416,11 +13416,11 @@
       <c s="13" r="D113">
         <v>5</v>
       </c>
-      <c s="59" r="E113">
+      <c s="58" r="E113">
         <f>((1/(INDEX(E0!J$20:J$44,C113,1)-INDEX(E0!J$20:J$44,D113,1))))*100000000</f>
         <v>186.941757095411</v>
       </c>
-      <c s="59" r="F113"/>
+      <c s="58" r="F113"/>
       <c s="53" r="G113">
         <f>SUM(H113:M113)</f>
         <v>123.239</v>
@@ -13511,11 +13511,11 @@
       <c s="13" r="D114">
         <v>6</v>
       </c>
-      <c s="59" r="E114">
+      <c s="58" r="E114">
         <f>((1/(INDEX(E0!J$20:J$44,C114,1)-INDEX(E0!J$20:J$44,D114,1))))*100000000</f>
         <v>186.958805904278</v>
       </c>
-      <c s="59" r="F114"/>
+      <c s="58" r="F114"/>
       <c s="53" r="G114">
         <f>SUM(H114:M114)</f>
         <v>3783500.014164</v>
@@ -13604,11 +13604,11 @@
       <c s="13" r="D115">
         <v>7</v>
       </c>
-      <c s="59" r="E115">
+      <c s="58" r="E115">
         <f>((1/(INDEX(E0!J$20:J$44,C115,1)-INDEX(E0!J$20:J$44,D115,1))))*100000000</f>
         <v>187.322209786228</v>
       </c>
-      <c s="59" r="F115"/>
+      <c s="58" r="F115"/>
       <c s="53" r="G115">
         <f>SUM(H115:M115)</f>
         <v>238180.143540747</v>
@@ -13699,11 +13699,11 @@
       <c s="13" r="D116">
         <v>8</v>
       </c>
-      <c s="59" r="E116">
+      <c s="58" r="E116">
         <f>((1/(INDEX(E0!J$20:J$44,C116,1)-INDEX(E0!J$20:J$44,D116,1))))*100000000</f>
         <v>187.32285603381</v>
       </c>
-      <c s="59" r="F116"/>
+      <c s="58" r="F116"/>
       <c s="53" r="G116">
         <f>SUM(H116:M116)</f>
         <v>70405000343.106</v>
@@ -13792,11 +13792,11 @@
       <c s="13" r="D117">
         <v>9</v>
       </c>
-      <c s="59" r="E117">
+      <c s="58" r="E117">
         <f>((1/(INDEX(E0!J$20:J$44,C117,1)-INDEX(E0!J$20:J$44,D117,1))))*100000000</f>
         <v>187.449278029565</v>
       </c>
-      <c s="59" r="F117"/>
+      <c s="58" r="F117"/>
       <c s="53" r="G117">
         <f>SUM(H117:M117)</f>
         <v>951980.6129726</v>
@@ -13887,11 +13887,11 @@
       <c s="13" r="D118">
         <v>10</v>
       </c>
-      <c s="59" r="E118">
+      <c s="58" r="E118">
         <f>((1/(INDEX(E0!J$20:J$44,C118,1)-INDEX(E0!J$20:J$44,D118,1))))*100000000</f>
         <v>163675.229063479</v>
       </c>
-      <c s="59" r="F118"/>
+      <c s="58" r="F118"/>
       <c s="53" r="G118">
         <f>SUM(H118:M118)</f>
         <v>0.000000000000776</v>
@@ -13975,11 +13975,11 @@
       <c s="13" r="D119">
         <v>11</v>
       </c>
-      <c s="59" r="E119">
+      <c s="58" r="E119">
         <f>((1/(INDEX(E0!J$20:J$44,C119,1)-INDEX(E0!J$20:J$44,D119,1))))*100000000</f>
         <v>169400.795506238</v>
       </c>
-      <c s="59" r="F119"/>
+      <c s="58" r="F119"/>
       <c s="53" r="G119">
         <f>SUM(H119:M119)</f>
         <v>0.000000054589</v>
@@ -14063,11 +14063,11 @@
       <c s="13" r="D120">
         <v>12</v>
       </c>
-      <c s="59" r="E120">
+      <c s="58" r="E120">
         <f>((1/(INDEX(E0!J$20:J$44,C120,1)-INDEX(E0!J$20:J$44,D120,1))))*100000000</f>
         <v>654943.183684568</v>
       </c>
-      <c s="59" r="F120"/>
+      <c s="58" r="F120"/>
       <c s="53" r="G120">
         <f>SUM(H120:M120)</f>
         <v>0.000038135013314</v>
@@ -14158,11 +14158,11 @@
       <c s="13" r="D121">
         <v>13</v>
       </c>
-      <c s="59" r="E121">
+      <c s="58" r="E121">
         <f>((1/(INDEX(E0!J$20:J$44,C121,1)-INDEX(E0!J$20:J$44,D121,1))))*100000000</f>
         <v>658345.183547864</v>
       </c>
-      <c s="59" r="F121"/>
+      <c s="58" r="F121"/>
       <c s="53" r="G121">
         <f>SUM(H121:M121)</f>
         <v>12.371</v>
@@ -14251,11 +14251,11 @@
       <c s="13" r="D122">
         <v>1</v>
       </c>
-      <c s="59" r="E122">
+      <c s="58" r="E122">
         <f>((1/(INDEX(E0!J$20:J$44,C122,1)-INDEX(E0!J$20:J$44,D122,1))))*100000000</f>
         <v>9.7078174150132</v>
       </c>
-      <c s="59" r="F122"/>
+      <c s="58" r="F122"/>
       <c s="53" r="G122">
         <f>SUM(H122:M122)</f>
         <v>30890</v>
@@ -14334,11 +14334,11 @@
       <c s="13" r="D123">
         <v>2</v>
       </c>
-      <c s="59" r="E123">
+      <c s="58" r="E123">
         <f>((1/(INDEX(E0!J$20:J$44,C123,1)-INDEX(E0!J$20:J$44,D123,1))))*100000000</f>
         <v>48.495590240452</v>
       </c>
-      <c s="59" r="F123"/>
+      <c s="58" r="F123"/>
       <c s="53" r="G123">
         <f>SUM(H123:M123)</f>
         <v>1.1043</v>
@@ -14412,11 +14412,11 @@
       <c s="13" r="D124">
         <v>3</v>
       </c>
-      <c s="59" r="E124">
+      <c s="58" r="E124">
         <f>((1/(INDEX(E0!J$20:J$44,C124,1)-INDEX(E0!J$20:J$44,D124,1))))*100000000</f>
         <v>48.4994254251245</v>
       </c>
-      <c s="59" r="F124"/>
+      <c s="58" r="F124"/>
       <c s="53" r="G124">
         <f>SUM(H124:M124)</f>
         <v>12281</v>
@@ -14495,11 +14495,11 @@
       <c s="13" r="D125">
         <v>4</v>
       </c>
-      <c s="59" r="E125">
+      <c s="58" r="E125">
         <f>((1/(INDEX(E0!J$20:J$44,C125,1)-INDEX(E0!J$20:J$44,D125,1))))*100000000</f>
         <v>48.5821176103333</v>
       </c>
-      <c s="59" r="F125"/>
+      <c s="58" r="F125"/>
       <c s="53" r="G125">
         <f>SUM(H125:M125)</f>
         <v>61738003.2999</v>
@@ -14588,11 +14588,11 @@
       <c s="13" r="D126">
         <v>5</v>
       </c>
-      <c s="59" r="E126">
+      <c s="58" r="E126">
         <f>((1/(INDEX(E0!J$20:J$44,C126,1)-INDEX(E0!J$20:J$44,D126,1))))*100000000</f>
         <v>186.915193643944</v>
       </c>
-      <c s="59" r="F126"/>
+      <c s="58" r="F126"/>
       <c s="53" r="G126">
         <f>SUM(H126:M126)</f>
         <v>0.0070282</v>
@@ -14666,11 +14666,11 @@
       <c s="13" r="D127">
         <v>6</v>
       </c>
-      <c s="59" r="E127">
+      <c s="58" r="E127">
         <f>((1/(INDEX(E0!J$20:J$44,C127,1)-INDEX(E0!J$20:J$44,D127,1))))*100000000</f>
         <v>186.93223760784</v>
       </c>
-      <c s="59" r="F127"/>
+      <c s="58" r="F127"/>
       <c s="53" r="G127">
         <f>SUM(H127:M127)</f>
         <v>113.43</v>
@@ -14749,11 +14749,11 @@
       <c s="13" r="D128">
         <v>7</v>
       </c>
-      <c s="59" r="E128">
+      <c s="58" r="E128">
         <f>((1/(INDEX(E0!J$20:J$44,C128,1)-INDEX(E0!J$20:J$44,D128,1))))*100000000</f>
         <v>187.295538111756</v>
       </c>
-      <c s="59" r="F128"/>
+      <c s="58" r="F128"/>
       <c s="53" r="G128">
         <f>SUM(H128:M128)</f>
         <v>137.065</v>
@@ -14844,11 +14844,11 @@
       <c s="13" r="D129">
         <v>8</v>
       </c>
-      <c s="59" r="E129">
+      <c s="58" r="E129">
         <f>((1/(INDEX(E0!J$20:J$44,C129,1)-INDEX(E0!J$20:J$44,D129,1))))*100000000</f>
         <v>187.296184175321</v>
       </c>
-      <c s="59" r="F129"/>
+      <c s="58" r="F129"/>
       <c s="53" r="G129">
         <f>SUM(H129:M129)</f>
         <v>5800500.020859</v>
@@ -14937,11 +14937,11 @@
       <c s="13" r="D130">
         <v>9</v>
       </c>
-      <c s="59" r="E130">
+      <c s="58" r="E130">
         <f>((1/(INDEX(E0!J$20:J$44,C130,1)-INDEX(E0!J$20:J$44,D130,1))))*100000000</f>
         <v>187.422570160445</v>
       </c>
-      <c s="59" r="F130"/>
+      <c s="58" r="F130"/>
       <c s="53" r="G130">
         <f>SUM(H130:M130)</f>
         <v>137940000889.867</v>
@@ -15030,11 +15030,11 @@
       <c s="13" r="D131">
         <v>10</v>
       </c>
-      <c s="59" r="E131">
+      <c s="58" r="E131">
         <f>((1/(INDEX(E0!J$20:J$44,C131,1)-INDEX(E0!J$20:J$44,D131,1))))*100000000</f>
         <v>145563.162039513</v>
       </c>
-      <c s="59" r="F131"/>
+      <c s="58" r="F131"/>
       <c s="53" r="G131">
         <f>SUM(H131:M131)</f>
         <v>0</v>
@@ -15108,11 +15108,11 @@
       <c s="13" r="D132">
         <v>11</v>
       </c>
-      <c s="59" r="E132">
+      <c s="58" r="E132">
         <f>((1/(INDEX(E0!J$20:J$44,C132,1)-INDEX(E0!J$20:J$44,D132,1))))*100000000</f>
         <v>150074.211697829</v>
       </c>
-      <c s="59" r="F132"/>
+      <c s="58" r="F132"/>
       <c s="53" r="G132">
         <f>SUM(H132:M132)</f>
         <v>0</v>
@@ -15186,11 +15186,11 @@
       <c s="13" r="D133">
         <v>12</v>
       </c>
-      <c s="59" r="E133">
+      <c s="58" r="E133">
         <f>((1/(INDEX(E0!J$20:J$44,C133,1)-INDEX(E0!J$20:J$44,D133,1))))*100000000</f>
         <v>437242.573437995</v>
       </c>
-      <c s="59" r="F133"/>
+      <c s="58" r="F133"/>
       <c s="53" r="G133">
         <f>SUM(H133:M133)</f>
         <v>0.000000000000004</v>
@@ -15274,11 +15274,11 @@
       <c s="13" r="D134">
         <v>13</v>
       </c>
-      <c s="59" r="E134">
+      <c s="58" r="E134">
         <f>((1/(INDEX(E0!J$20:J$44,C134,1)-INDEX(E0!J$20:J$44,D134,1))))*100000000</f>
         <v>438756.213885969</v>
       </c>
-      <c s="59" r="F134"/>
+      <c s="58" r="F134"/>
       <c s="53" r="G134">
         <f>SUM(H134:M134)</f>
         <v>0.00000000024079</v>
@@ -15362,11 +15362,11 @@
       <c s="13" r="D135">
         <v>14</v>
       </c>
-      <c s="59" r="E135">
+      <c s="58" r="E135">
         <f>((1/(INDEX(E0!J$20:J$44,C135,1)-INDEX(E0!J$20:J$44,D135,1))))*100000000</f>
         <v>1310684.70171862</v>
       </c>
-      <c s="59" r="F135"/>
+      <c s="58" r="F135"/>
       <c s="53" r="G135">
         <f>SUM(H135:M135)</f>
         <v>0.000005098000106</v>
@@ -15450,11 +15450,11 @@
       <c s="13" r="D136">
         <v>15</v>
       </c>
-      <c s="59" r="E136">
+      <c s="58" r="E136">
         <f>((1/(INDEX(E0!J$20:J$44,C136,1)-INDEX(E0!J$20:J$44,D136,1))))*100000000</f>
         <v>1315426.00071523</v>
       </c>
-      <c s="59" r="F136"/>
+      <c s="58" r="F136"/>
       <c s="53" r="G136">
         <f>SUM(H136:M136)</f>
         <v>0.96493</v>
@@ -15538,11 +15538,11 @@
       <c s="13" r="D137">
         <v>1</v>
       </c>
-      <c s="59" r="E137">
+      <c s="58" r="E137">
         <f>((1/(INDEX(E0!J$20:J$44,C137,1)-INDEX(E0!J$20:J$44,D137,1))))*100000000</f>
         <v>9.48088606902662</v>
       </c>
-      <c s="59" r="F137"/>
+      <c s="58" r="F137"/>
       <c s="53" r="G137">
         <f>SUM(H137:M137)</f>
         <v>343260000000</v>
@@ -15626,11 +15626,11 @@
       <c s="13" r="D138">
         <v>2</v>
       </c>
-      <c s="59" r="E138">
+      <c s="58" r="E138">
         <f>((1/(INDEX(E0!J$20:J$44,C138,1)-INDEX(E0!J$20:J$44,D138,1))))*100000000</f>
         <v>43.3162220770346</v>
       </c>
-      <c s="59" r="F138"/>
+      <c s="58" r="F138"/>
       <c s="53" r="G138">
         <f>SUM(H138:M138)</f>
         <v>2.4916</v>
@@ -15714,11 +15714,11 @@
       <c s="13" r="D139">
         <v>3</v>
       </c>
-      <c s="59" r="E139">
+      <c s="58" r="E139">
         <f>((1/(INDEX(E0!J$20:J$44,C139,1)-INDEX(E0!J$20:J$44,D139,1))))*100000000</f>
         <v>43.3192817799277</v>
       </c>
-      <c s="59" r="F139"/>
+      <c s="58" r="F139"/>
       <c s="53" r="G139">
         <f>SUM(H139:M139)</f>
         <v>49632000000</v>
@@ -15802,11 +15802,11 @@
       <c s="13" r="D140">
         <v>4</v>
       </c>
-      <c s="59" r="E140">
+      <c s="58" r="E140">
         <f>((1/(INDEX(E0!J$20:J$44,C140,1)-INDEX(E0!J$20:J$44,D140,1))))*100000000</f>
         <v>43.3852408759073</v>
       </c>
-      <c s="59" r="F140"/>
+      <c s="58" r="F140"/>
       <c s="53" r="G140">
         <f>SUM(H140:M140)</f>
         <v>5254443.715</v>
@@ -15890,11 +15890,11 @@
       <c s="13" r="D141">
         <v>5</v>
       </c>
-      <c s="59" r="E141">
+      <c s="58" r="E141">
         <f>((1/(INDEX(E0!J$20:J$44,C141,1)-INDEX(E0!J$20:J$44,D141,1))))*100000000</f>
         <v>127.948779871991</v>
       </c>
-      <c s="59" r="F141"/>
+      <c s="58" r="F141"/>
       <c s="53" r="G141">
         <f>SUM(H141:M141)</f>
         <v>0.077346</v>
@@ -15978,11 +15978,11 @@
       <c s="13" r="D142">
         <v>6</v>
       </c>
-      <c s="59" r="E142">
+      <c s="58" r="E142">
         <f>((1/(INDEX(E0!J$20:J$44,C142,1)-INDEX(E0!J$20:J$44,D142,1))))*100000000</f>
         <v>127.956766090712</v>
       </c>
-      <c s="59" r="F142"/>
+      <c s="58" r="F142"/>
       <c s="53" r="G142">
         <f>SUM(H142:M142)</f>
         <v>16430000000</v>
@@ -16066,11 +16066,11 @@
       <c s="13" r="D143">
         <v>7</v>
       </c>
-      <c s="59" r="E143">
+      <c s="58" r="E143">
         <f>((1/(INDEX(E0!J$20:J$44,C143,1)-INDEX(E0!J$20:J$44,D143,1))))*100000000</f>
         <v>128.126887078018</v>
       </c>
-      <c s="59" r="F143"/>
+      <c s="58" r="F143"/>
       <c s="53" r="G143">
         <f>SUM(H143:M143)</f>
         <v>1520300000.40924</v>
@@ -16154,11 +16154,11 @@
       <c s="13" r="D144">
         <v>8</v>
       </c>
-      <c s="59" r="E144">
+      <c s="58" r="E144">
         <f>((1/(INDEX(E0!J$20:J$44,C144,1)-INDEX(E0!J$20:J$44,D144,1))))*100000000</f>
         <v>128.127189421397</v>
       </c>
-      <c s="59" r="F144"/>
+      <c s="58" r="F144"/>
       <c s="53" r="G144">
         <f>SUM(H144:M144)</f>
         <v>1427404.1701</v>
@@ -16242,11 +16242,11 @@
       <c s="13" r="D145">
         <v>9</v>
       </c>
-      <c s="59" r="E145">
+      <c s="58" r="E145">
         <f>((1/(INDEX(E0!J$20:J$44,C145,1)-INDEX(E0!J$20:J$44,D145,1))))*100000000</f>
         <v>128.186322581372</v>
       </c>
-      <c s="59" r="F145"/>
+      <c s="58" r="F145"/>
       <c s="53" r="G145">
         <f>SUM(H145:M145)</f>
         <v>26.814</v>
@@ -16330,11 +16330,11 @@
       <c s="13" r="D146">
         <v>10</v>
       </c>
-      <c s="59" r="E146">
+      <c s="58" r="E146">
         <f>((1/(INDEX(E0!J$20:J$44,C146,1)-INDEX(E0!J$20:J$44,D146,1))))*100000000</f>
         <v>404.452622152903</v>
       </c>
-      <c s="59" r="F146"/>
+      <c s="58" r="F146"/>
       <c s="53" r="G146">
         <f>SUM(H146:M146)</f>
         <v>0.002461</v>
@@ -16418,11 +16418,11 @@
       <c s="13" r="D147">
         <v>11</v>
       </c>
-      <c s="59" r="E147">
+      <c s="58" r="E147">
         <f>((1/(INDEX(E0!J$20:J$44,C147,1)-INDEX(E0!J$20:J$44,D147,1))))*100000000</f>
         <v>404.486404641615</v>
       </c>
-      <c s="59" r="F147"/>
+      <c s="58" r="F147"/>
       <c s="53" r="G147">
         <f>SUM(H147:M147)</f>
         <v>7394900000</v>
@@ -16506,11 +16506,11 @@
       <c s="13" r="D148">
         <v>12</v>
       </c>
-      <c s="59" r="E148">
+      <c s="58" r="E148">
         <f>((1/(INDEX(E0!J$20:J$44,C148,1)-INDEX(E0!J$20:J$44,D148,1))))*100000000</f>
         <v>405.203679134332</v>
       </c>
-      <c s="59" r="F148"/>
+      <c s="58" r="F148"/>
       <c s="53" r="G148">
         <f>SUM(H148:M148)</f>
         <v>1912800000.05145</v>
@@ -16594,11 +16594,11 @@
       <c s="13" r="D149">
         <v>13</v>
       </c>
-      <c s="59" r="E149">
+      <c s="58" r="E149">
         <f>((1/(INDEX(E0!J$20:J$44,C149,1)-INDEX(E0!J$20:J$44,D149,1))))*100000000</f>
         <v>405.204974597742</v>
       </c>
-      <c s="59" r="F149"/>
+      <c s="58" r="F149"/>
       <c s="53" r="G149">
         <f>SUM(H149:M149)</f>
         <v>455130.51846</v>
@@ -16682,11 +16682,11 @@
       <c s="13" r="D150">
         <v>14</v>
       </c>
-      <c s="59" r="E150">
+      <c s="58" r="E150">
         <f>((1/(INDEX(E0!J$20:J$44,C150,1)-INDEX(E0!J$20:J$44,D150,1))))*100000000</f>
         <v>405.454075783919</v>
       </c>
-      <c s="59" r="F150"/>
+      <c s="58" r="F150"/>
       <c s="53" r="G150">
         <f>SUM(H150:M150)</f>
         <v>47411.00000077</v>
@@ -16770,11 +16770,11 @@
       <c s="13" r="D151">
         <v>15</v>
       </c>
-      <c s="59" r="E151">
+      <c s="58" r="E151">
         <f>((1/(INDEX(E0!J$20:J$44,C151,1)-INDEX(E0!J$20:J$44,D151,1))))*100000000</f>
         <v>405.454527865191</v>
       </c>
-      <c s="59" r="F151"/>
+      <c s="58" r="F151"/>
       <c s="53" r="G151">
         <f>SUM(H151:M151)</f>
         <v>8.22339</v>
@@ -16858,11 +16858,11 @@
       <c s="13" r="D152">
         <v>16</v>
       </c>
-      <c s="59" r="E152">
+      <c s="58" r="E152">
         <f>((1/(INDEX(E0!J$20:J$44,C152,1)-INDEX(E0!J$20:J$44,D152,1))))*100000000</f>
         <v>405.579539884694</v>
       </c>
-      <c s="59" r="F152"/>
+      <c s="58" r="F152"/>
       <c s="53" r="G152">
         <f>SUM(H152:M152)</f>
         <v>0.000020791</v>
@@ -16936,11 +16936,11 @@
       <c s="13" r="D153">
         <v>1</v>
       </c>
-      <c s="59" r="E153">
+      <c s="58" r="E153">
         <f>((1/(INDEX(E0!J$20:J$44,C153,1)-INDEX(E0!J$20:J$44,D153,1))))*100000000</f>
         <v>9.48087654908276</v>
       </c>
-      <c s="59" r="F153"/>
+      <c s="58" r="F153"/>
       <c s="53" r="G153">
         <f>SUM(H153:M153)</f>
         <v>2884.4</v>
@@ -17024,11 +17024,11 @@
       <c s="13" r="D154">
         <v>2</v>
       </c>
-      <c s="59" r="E154">
+      <c s="58" r="E154">
         <f>((1/(INDEX(E0!J$20:J$44,C154,1)-INDEX(E0!J$20:J$44,D154,1))))*100000000</f>
         <v>43.3160233595327</v>
       </c>
-      <c s="59" r="F154"/>
+      <c s="58" r="F154"/>
       <c s="53" r="G154">
         <f>SUM(H154:M154)</f>
         <v>4311000000</v>
@@ -17112,11 +17112,11 @@
       <c s="13" r="D155">
         <v>3</v>
       </c>
-      <c s="59" r="E155">
+      <c s="58" r="E155">
         <f>((1/(INDEX(E0!J$20:J$44,C155,1)-INDEX(E0!J$20:J$44,D155,1))))*100000000</f>
         <v>43.3190830343515</v>
       </c>
-      <c s="59" r="F155"/>
+      <c s="58" r="F155"/>
       <c s="53" r="G155">
         <f>SUM(H155:M155)</f>
         <v>10.9</v>
@@ -17200,11 +17200,11 @@
       <c s="13" r="D156">
         <v>4</v>
       </c>
-      <c s="59" r="E156">
+      <c s="58" r="E156">
         <f>((1/(INDEX(E0!J$20:J$44,C156,1)-INDEX(E0!J$20:J$44,D156,1))))*100000000</f>
         <v>43.3850415246411</v>
       </c>
-      <c s="59" r="F156"/>
+      <c s="58" r="F156"/>
       <c s="53" r="G156">
         <f>SUM(H156:M156)</f>
         <v>8710100511.41</v>
@@ -17288,11 +17288,11 @@
       <c s="13" r="D157">
         <v>5</v>
       </c>
-      <c s="59" r="E157">
+      <c s="58" r="E157">
         <f>((1/(INDEX(E0!J$20:J$44,C157,1)-INDEX(E0!J$20:J$44,D157,1))))*100000000</f>
         <v>127.947046054497</v>
       </c>
-      <c s="59" r="F157"/>
+      <c s="58" r="F157"/>
       <c s="53" r="G157">
         <f>SUM(H157:M157)</f>
         <v>3024900000</v>
@@ -17376,11 +17376,11 @@
       <c s="13" r="D158">
         <v>6</v>
       </c>
-      <c s="59" r="E158">
+      <c s="58" r="E158">
         <f>((1/(INDEX(E0!J$20:J$44,C158,1)-INDEX(E0!J$20:J$44,D158,1))))*100000000</f>
         <v>127.955032056773</v>
       </c>
-      <c s="59" r="F158"/>
+      <c s="58" r="F158"/>
       <c s="53" r="G158">
         <f>SUM(H158:M158)</f>
         <v>0.26048</v>
@@ -17464,11 +17464,11 @@
       <c s="13" r="D159">
         <v>7</v>
       </c>
-      <c s="59" r="E159">
+      <c s="58" r="E159">
         <f>((1/(INDEX(E0!J$20:J$44,C159,1)-INDEX(E0!J$20:J$44,D159,1))))*100000000</f>
         <v>128.125148430182</v>
       </c>
-      <c s="59" r="F159"/>
+      <c s="58" r="F159"/>
       <c s="53" r="G159">
         <f>SUM(H159:M159)</f>
         <v>256600.000034343</v>
@@ -17552,11 +17552,11 @@
       <c s="13" r="D160">
         <v>8</v>
       </c>
-      <c s="59" r="E160">
+      <c s="58" r="E160">
         <f>((1/(INDEX(E0!J$20:J$44,C160,1)-INDEX(E0!J$20:J$44,D160,1))))*100000000</f>
         <v>128.125450765356</v>
       </c>
-      <c s="59" r="F160"/>
+      <c s="58" r="F160"/>
       <c s="53" r="G160">
         <f>SUM(H160:M160)</f>
         <v>6106200041.079</v>
@@ -17640,11 +17640,11 @@
       <c s="13" r="D161">
         <v>9</v>
       </c>
-      <c s="59" r="E161">
+      <c s="58" r="E161">
         <f>((1/(INDEX(E0!J$20:J$44,C161,1)-INDEX(E0!J$20:J$44,D161,1))))*100000000</f>
         <v>128.184582320124</v>
       </c>
-      <c s="59" r="F161"/>
+      <c s="58" r="F161"/>
       <c s="53" r="G161">
         <f>SUM(H161:M161)</f>
         <v>385060.0030662</v>
@@ -17728,11 +17728,11 @@
       <c s="13" r="D162">
         <v>10</v>
       </c>
-      <c s="59" r="E162">
+      <c s="58" r="E162">
         <f>((1/(INDEX(E0!J$20:J$44,C162,1)-INDEX(E0!J$20:J$44,D162,1))))*100000000</f>
         <v>404.435297933471</v>
       </c>
-      <c s="59" r="F162"/>
+      <c s="58" r="F162"/>
       <c s="53" r="G162">
         <f>SUM(H162:M162)</f>
         <v>2156200000</v>
@@ -17816,11 +17816,11 @@
       <c s="13" r="D163">
         <v>11</v>
       </c>
-      <c s="59" r="E163">
+      <c s="58" r="E163">
         <f>((1/(INDEX(E0!J$20:J$44,C163,1)-INDEX(E0!J$20:J$44,D163,1))))*100000000</f>
         <v>404.469077528064</v>
       </c>
-      <c s="59" r="F163"/>
+      <c s="58" r="F163"/>
       <c s="53" r="G163">
         <f>SUM(H163:M163)</f>
         <v>0.0074006</v>
@@ -17904,11 +17904,11 @@
       <c s="13" r="D164">
         <v>12</v>
       </c>
-      <c s="59" r="E164">
+      <c s="58" r="E164">
         <f>((1/(INDEX(E0!J$20:J$44,C164,1)-INDEX(E0!J$20:J$44,D164,1))))*100000000</f>
         <v>405.18629051538</v>
       </c>
-      <c s="59" r="F164"/>
+      <c s="58" r="F164"/>
       <c s="53" r="G164">
         <f>SUM(H164:M164)</f>
         <v>130480.00000797</v>
@@ -17992,11 +17992,11 @@
       <c s="13" r="D165">
         <v>13</v>
       </c>
-      <c s="59" r="E165">
+      <c s="58" r="E165">
         <f>((1/(INDEX(E0!J$20:J$44,C165,1)-INDEX(E0!J$20:J$44,D165,1))))*100000000</f>
         <v>405.187585867607</v>
       </c>
-      <c s="59" r="F165"/>
+      <c s="58" r="F165"/>
       <c s="53" r="G165">
         <f>SUM(H165:M165)</f>
         <v>4353600002.9277</v>
@@ -18080,11 +18080,11 @@
       <c s="13" r="D166">
         <v>14</v>
       </c>
-      <c s="59" r="E166">
+      <c s="58" r="E166">
         <f>((1/(INDEX(E0!J$20:J$44,C166,1)-INDEX(E0!J$20:J$44,D166,1))))*100000000</f>
         <v>405.436665668106</v>
       </c>
-      <c s="59" r="F166"/>
+      <c s="58" r="F166"/>
       <c s="53" r="G166">
         <f>SUM(H166:M166)</f>
         <v>1.36770000000989</v>
@@ -18168,11 +18168,11 @@
       <c s="13" r="D167">
         <v>15</v>
       </c>
-      <c s="59" r="E167">
+      <c s="58" r="E167">
         <f>((1/(INDEX(E0!J$20:J$44,C167,1)-INDEX(E0!J$20:J$44,D167,1))))*100000000</f>
         <v>405.437117710555</v>
       </c>
-      <c s="59" r="F167"/>
+      <c s="58" r="F167"/>
       <c s="53" r="G167">
         <f>SUM(H167:M167)</f>
         <v>195800.00015584</v>
@@ -18256,11 +18256,11 @@
       <c s="13" r="D168">
         <v>16</v>
       </c>
-      <c s="59" r="E168">
+      <c s="58" r="E168">
         <f>((1/(INDEX(E0!J$20:J$44,C168,1)-INDEX(E0!J$20:J$44,D168,1))))*100000000</f>
         <v>405.56211899264</v>
       </c>
-      <c s="59" r="F168"/>
+      <c s="58" r="F168"/>
       <c s="53" r="G168">
         <f>SUM(H168:M168)</f>
         <v>1.8227</v>
@@ -18334,11 +18334,11 @@
       <c s="13" r="D169">
         <v>1</v>
       </c>
-      <c s="59" r="E169">
+      <c s="58" r="E169">
         <f>((1/(INDEX(E0!J$20:J$44,C169,1)-INDEX(E0!J$20:J$44,D169,1))))*100000000</f>
         <v>9.48067519115344</v>
       </c>
-      <c s="59" r="F169"/>
+      <c s="58" r="F169"/>
       <c s="53" r="G169">
         <f>SUM(H169:M169)</f>
         <v>184300025.838</v>
@@ -18422,11 +18422,11 @@
       <c s="13" r="D170">
         <v>2</v>
       </c>
-      <c s="59" r="E170">
+      <c s="58" r="E170">
         <f>((1/(INDEX(E0!J$20:J$44,C170,1)-INDEX(E0!J$20:J$44,D170,1))))*100000000</f>
         <v>43.3118205859321</v>
       </c>
-      <c s="59" r="F170"/>
+      <c s="58" r="F170"/>
       <c s="53" r="G170">
         <f>SUM(H170:M170)</f>
         <v>78901000185.34</v>
@@ -18510,11 +18510,11 @@
       <c s="13" r="D171">
         <v>3</v>
       </c>
-      <c s="59" r="E171">
+      <c s="58" r="E171">
         <f>((1/(INDEX(E0!J$20:J$44,C171,1)-INDEX(E0!J$20:J$44,D171,1))))*100000000</f>
         <v>43.3148796670238</v>
       </c>
-      <c s="59" r="F171"/>
+      <c s="58" r="F171"/>
       <c s="53" r="G171">
         <f>SUM(H171:M171)</f>
         <v>985130.33924</v>
@@ -18598,11 +18598,11 @@
       <c s="13" r="D172">
         <v>4</v>
       </c>
-      <c s="59" r="E172">
+      <c s="58" r="E172">
         <f>((1/(INDEX(E0!J$20:J$44,C172,1)-INDEX(E0!J$20:J$44,D172,1))))*100000000</f>
         <v>43.3808253479313</v>
       </c>
-      <c s="59" r="F172"/>
+      <c s="58" r="F172"/>
       <c s="53" r="G172">
         <f>SUM(H172:M172)</f>
         <v>15695000071.496</v>
@@ -18686,11 +18686,11 @@
       <c s="13" r="D173">
         <v>5</v>
       </c>
-      <c s="59" r="E173">
+      <c s="58" r="E173">
         <f>((1/(INDEX(E0!J$20:J$44,C173,1)-INDEX(E0!J$20:J$44,D173,1))))*100000000</f>
         <v>127.910383979349</v>
       </c>
-      <c s="59" r="F173"/>
+      <c s="58" r="F173"/>
       <c s="53" r="G173">
         <f>SUM(H173:M173)</f>
         <v>28323000007.6387</v>
@@ -18774,11 +18774,11 @@
       <c s="13" r="D174">
         <v>6</v>
       </c>
-      <c s="59" r="E174">
+      <c s="58" r="E174">
         <f>((1/(INDEX(E0!J$20:J$44,C174,1)-INDEX(E0!J$20:J$44,D174,1))))*100000000</f>
         <v>127.918365405504</v>
       </c>
-      <c s="59" r="F174"/>
+      <c s="58" r="F174"/>
       <c s="53" r="G174">
         <f>SUM(H174:M174)</f>
         <v>1096300.0070657</v>
@@ -18862,11 +18862,11 @@
       <c s="13" r="D175">
         <v>7</v>
       </c>
-      <c s="59" r="E175">
+      <c s="58" r="E175">
         <f>((1/(INDEX(E0!J$20:J$44,C175,1)-INDEX(E0!J$20:J$44,D175,1))))*100000000</f>
         <v>128.088384231392</v>
       </c>
-      <c s="59" r="F175"/>
+      <c s="58" r="F175"/>
       <c s="53" r="G175">
         <f>SUM(H175:M175)</f>
         <v>401530.18857757</v>
@@ -18950,11 +18950,11 @@
       <c s="13" r="D176">
         <v>8</v>
       </c>
-      <c s="59" r="E176">
+      <c s="58" r="E176">
         <f>((1/(INDEX(E0!J$20:J$44,C176,1)-INDEX(E0!J$20:J$44,D176,1))))*100000000</f>
         <v>128.088686393086</v>
       </c>
-      <c s="59" r="F176"/>
+      <c s="58" r="F176"/>
       <c s="53" r="G176">
         <f>SUM(H176:M176)</f>
         <v>5657600007.4761</v>
@@ -19038,11 +19038,11 @@
       <c s="13" r="D177">
         <v>9</v>
       </c>
-      <c s="59" r="E177">
+      <c s="58" r="E177">
         <f>((1/(INDEX(E0!J$20:J$44,C177,1)-INDEX(E0!J$20:J$44,D177,1))))*100000000</f>
         <v>128.147784010429</v>
       </c>
-      <c s="59" r="F177"/>
+      <c s="58" r="F177"/>
       <c s="53" r="G177">
         <f>SUM(H177:M177)</f>
         <v>171820.406648217</v>
@@ -19126,11 +19126,11 @@
       <c s="13" r="D178">
         <v>10</v>
       </c>
-      <c s="59" r="E178">
+      <c s="58" r="E178">
         <f>((1/(INDEX(E0!J$20:J$44,C178,1)-INDEX(E0!J$20:J$44,D178,1))))*100000000</f>
         <v>404.069209685396</v>
       </c>
-      <c s="59" r="F178"/>
+      <c s="58" r="F178"/>
       <c s="53" r="G178">
         <f>SUM(H178:M178)</f>
         <v>12370000000.3345</v>
@@ -19214,11 +19214,11 @@
       <c s="13" r="D179">
         <v>11</v>
       </c>
-      <c s="59" r="E179">
+      <c s="58" r="E179">
         <f>((1/(INDEX(E0!J$20:J$44,C179,1)-INDEX(E0!J$20:J$44,D179,1))))*100000000</f>
         <v>404.102928151639</v>
       </c>
-      <c s="59" r="F179"/>
+      <c s="58" r="F179"/>
       <c s="53" r="G179">
         <f>SUM(H179:M179)</f>
         <v>541860.000094035</v>
@@ -19302,11 +19302,11 @@
       <c s="13" r="D180">
         <v>12</v>
       </c>
-      <c s="59" r="E180">
+      <c s="58" r="E180">
         <f>((1/(INDEX(E0!J$20:J$44,C180,1)-INDEX(E0!J$20:J$44,D180,1))))*100000000</f>
         <v>404.818842050113</v>
       </c>
-      <c s="59" r="F180"/>
+      <c s="58" r="F180"/>
       <c s="53" r="G180">
         <f>SUM(H180:M180)</f>
         <v>186190.00874826</v>
@@ -19390,11 +19390,11 @@
       <c s="13" r="D181">
         <v>13</v>
       </c>
-      <c s="59" r="E181">
+      <c s="58" r="E181">
         <f>((1/(INDEX(E0!J$20:J$44,C181,1)-INDEX(E0!J$20:J$44,D181,1))))*100000000</f>
         <v>404.820135053988</v>
       </c>
-      <c s="59" r="F181"/>
+      <c s="58" r="F181"/>
       <c s="53" r="G181">
         <f>SUM(H181:M181)</f>
         <v>2479800013.099</v>
@@ -19478,11 +19478,11 @@
       <c s="13" r="D182">
         <v>14</v>
       </c>
-      <c s="59" r="E182">
+      <c s="58" r="E182">
         <f>((1/(INDEX(E0!J$20:J$44,C182,1)-INDEX(E0!J$20:J$44,D182,1))))*100000000</f>
         <v>405.068763156762</v>
       </c>
-      <c s="59" r="F182"/>
+      <c s="58" r="F182"/>
       <c s="53" r="G182">
         <f>SUM(H182:M182)</f>
         <v>508040001.25891</v>
@@ -19566,11 +19566,11 @@
       <c s="13" r="D183">
         <v>15</v>
       </c>
-      <c s="59" r="E183">
+      <c s="58" r="E183">
         <f>((1/(INDEX(E0!J$20:J$44,C183,1)-INDEX(E0!J$20:J$44,D183,1))))*100000000</f>
         <v>405.069214379195</v>
       </c>
-      <c s="59" r="F183"/>
+      <c s="58" r="F183"/>
       <c s="53" r="G183">
         <f>SUM(H183:M183)</f>
         <v>79750.0564156338</v>
@@ -19654,11 +19654,11 @@
       <c s="13" r="D184">
         <v>16</v>
       </c>
-      <c s="59" r="E184">
+      <c s="58" r="E184">
         <f>((1/(INDEX(E0!J$20:J$44,C184,1)-INDEX(E0!J$20:J$44,D184,1))))*100000000</f>
         <v>405.193988870997</v>
       </c>
-      <c s="59" r="F184"/>
+      <c s="58" r="F184"/>
       <c s="53" r="G184">
         <f>SUM(H184:M184)</f>
         <v>0.79282</v>
@@ -19742,11 +19742,11 @@
       <c s="13" r="D185">
         <v>17</v>
       </c>
-      <c s="59" r="E185">
+      <c s="58" r="E185">
         <f>((1/(INDEX(E0!J$20:J$44,C185,1)-INDEX(E0!J$20:J$44,D185,1))))*100000000</f>
         <v>426242.92436575</v>
       </c>
-      <c s="59" r="F185"/>
+      <c s="58" r="F185"/>
       <c s="53" r="G185">
         <f>SUM(H185:M185)</f>
         <v>102.82</v>
@@ -19830,11 +19830,11 @@
       <c s="13" r="D186">
         <v>18</v>
       </c>
-      <c s="59" r="E186">
+      <c s="58" r="E186">
         <f>((1/(INDEX(E0!J$20:J$44,C186,1)-INDEX(E0!J$20:J$44,D186,1))))*100000000</f>
         <v>446394.693258046</v>
       </c>
-      <c s="59" r="F186"/>
+      <c s="58" r="F186"/>
       <c s="53" r="G186">
         <f>SUM(H186:M186)</f>
         <v>0.000000003121195</v>
@@ -19918,11 +19918,11 @@
       <c s="13" r="D187">
         <v>1</v>
       </c>
-      <c s="59" r="E187">
+      <c s="58" r="E187">
         <f>((1/(INDEX(E0!J$20:J$44,C187,1)-INDEX(E0!J$20:J$44,D187,1))))*100000000</f>
         <v>9.48067482532883</v>
       </c>
-      <c s="59" r="F187"/>
+      <c s="58" r="F187"/>
       <c s="53" r="G187">
         <f>SUM(H187:M187)</f>
         <v>343760421570</v>
@@ -20006,11 +20006,11 @@
       <c s="13" r="D188">
         <v>2</v>
       </c>
-      <c s="59" r="E188">
+      <c s="58" r="E188">
         <f>((1/(INDEX(E0!J$20:J$44,C188,1)-INDEX(E0!J$20:J$44,D188,1))))*100000000</f>
         <v>43.3118129509643</v>
       </c>
-      <c s="59" r="F188"/>
+      <c s="58" r="F188"/>
       <c s="53" r="G188">
         <f>SUM(H188:M188)</f>
         <v>2646309.6503</v>
@@ -20094,11 +20094,11 @@
       <c s="13" r="D189">
         <v>3</v>
       </c>
-      <c s="59" r="E189">
+      <c s="58" r="E189">
         <f>((1/(INDEX(E0!J$20:J$44,C189,1)-INDEX(E0!J$20:J$44,D189,1))))*100000000</f>
         <v>43.3148720309774</v>
       </c>
-      <c s="59" r="F189"/>
+      <c s="58" r="F189"/>
       <c s="53" r="G189">
         <f>SUM(H189:M189)</f>
         <v>49517002913</v>
@@ -20182,11 +20182,11 @@
       <c s="13" r="D190">
         <v>4</v>
       </c>
-      <c s="59" r="E190">
+      <c s="58" r="E190">
         <f>((1/(INDEX(E0!J$20:J$44,C190,1)-INDEX(E0!J$20:J$44,D190,1))))*100000000</f>
         <v>43.3808176886159</v>
       </c>
-      <c s="59" r="F190"/>
+      <c s="58" r="F190"/>
       <c s="53" r="G190">
         <f>SUM(H190:M190)</f>
         <v>2632818.14739</v>
@@ -20270,11 +20270,11 @@
       <c s="13" r="D191">
         <v>5</v>
       </c>
-      <c s="59" r="E191">
+      <c s="58" r="E191">
         <f>((1/(INDEX(E0!J$20:J$44,C191,1)-INDEX(E0!J$20:J$44,D191,1))))*100000000</f>
         <v>127.910317389844</v>
       </c>
-      <c s="59" r="F191"/>
+      <c s="58" r="F191"/>
       <c s="53" r="G191">
         <f>SUM(H191:M191)</f>
         <v>717001.364</v>
@@ -20358,11 +20358,11 @@
       <c s="13" r="D192">
         <v>6</v>
       </c>
-      <c s="59" r="E192">
+      <c s="58" r="E192">
         <f>((1/(INDEX(E0!J$20:J$44,C192,1)-INDEX(E0!J$20:J$44,D192,1))))*100000000</f>
         <v>127.918298807688</v>
       </c>
-      <c s="59" r="F192"/>
+      <c s="58" r="F192"/>
       <c s="53" r="G192">
         <f>SUM(H192:M192)</f>
         <v>16363000110.4</v>
@@ -20446,11 +20446,11 @@
       <c s="13" r="D193">
         <v>7</v>
       </c>
-      <c s="59" r="E193">
+      <c s="58" r="E193">
         <f>((1/(INDEX(E0!J$20:J$44,C193,1)-INDEX(E0!J$20:J$44,D193,1))))*100000000</f>
         <v>128.088317456425</v>
       </c>
-      <c s="59" r="F193"/>
+      <c s="58" r="F193"/>
       <c s="53" r="G193">
         <f>SUM(H193:M193)</f>
         <v>149790013.591</v>
@@ -20534,11 +20534,11 @@
       <c s="13" r="D194">
         <v>8</v>
       </c>
-      <c s="59" r="E194">
+      <c s="58" r="E194">
         <f>((1/(INDEX(E0!J$20:J$44,C194,1)-INDEX(E0!J$20:J$44,D194,1))))*100000000</f>
         <v>128.088619617805</v>
       </c>
-      <c s="59" r="F194"/>
+      <c s="58" r="F194"/>
       <c s="53" r="G194">
         <f>SUM(H194:M194)</f>
         <v>714500.564425</v>
@@ -20622,11 +20622,11 @@
       <c s="13" r="D195">
         <v>9</v>
       </c>
-      <c s="59" r="E195">
+      <c s="58" r="E195">
         <f>((1/(INDEX(E0!J$20:J$44,C195,1)-INDEX(E0!J$20:J$44,D195,1))))*100000000</f>
         <v>128.147717173516</v>
       </c>
-      <c s="59" r="F195"/>
+      <c s="58" r="F195"/>
       <c s="53" r="G195">
         <f>SUM(H195:M195)</f>
         <v>1354100020.84</v>
@@ -20710,11 +20710,11 @@
       <c s="13" r="D196">
         <v>10</v>
       </c>
-      <c s="59" r="E196">
+      <c s="58" r="E196">
         <f>((1/(INDEX(E0!J$20:J$44,C196,1)-INDEX(E0!J$20:J$44,D196,1))))*100000000</f>
         <v>404.068545169749</v>
       </c>
-      <c s="59" r="F196"/>
+      <c s="58" r="F196"/>
       <c s="53" r="G196">
         <f>SUM(H196:M196)</f>
         <v>227660.21193</v>
@@ -20798,11 +20798,11 @@
       <c s="13" r="D197">
         <v>11</v>
       </c>
-      <c s="59" r="E197">
+      <c s="58" r="E197">
         <f>((1/(INDEX(E0!J$20:J$44,C197,1)-INDEX(E0!J$20:J$44,D197,1))))*100000000</f>
         <v>404.102263525084</v>
       </c>
-      <c s="59" r="F197"/>
+      <c s="58" r="F197"/>
       <c s="53" r="G197">
         <f>SUM(H197:M197)</f>
         <v>7348700004.9688</v>
@@ -20886,11 +20886,11 @@
       <c s="13" r="D198">
         <v>12</v>
       </c>
-      <c s="59" r="E198">
+      <c s="58" r="E198">
         <f>((1/(INDEX(E0!J$20:J$44,C198,1)-INDEX(E0!J$20:J$44,D198,1))))*100000000</f>
         <v>404.818175066552</v>
       </c>
-      <c s="59" r="F198"/>
+      <c s="58" r="F198"/>
       <c s="53" r="G198">
         <f>SUM(H198:M198)</f>
         <v>188730004.624</v>
@@ -20974,11 +20974,11 @@
       <c s="13" r="D199">
         <v>13</v>
       </c>
-      <c s="59" r="E199">
+      <c s="58" r="E199">
         <f>((1/(INDEX(E0!J$20:J$44,C199,1)-INDEX(E0!J$20:J$44,D199,1))))*100000000</f>
         <v>404.819468066166</v>
       </c>
-      <c s="59" r="F199"/>
+      <c s="58" r="F199"/>
       <c s="53" r="G199">
         <f>SUM(H199:M199)</f>
         <v>227380.01797476</v>
@@ -21062,11 +21062,11 @@
       <c s="13" r="D200">
         <v>14</v>
       </c>
-      <c s="59" r="E200">
+      <c s="58" r="E200">
         <f>((1/(INDEX(E0!J$20:J$44,C200,1)-INDEX(E0!J$20:J$44,D200,1))))*100000000</f>
         <v>405.068095349402</v>
       </c>
-      <c s="59" r="F200"/>
+      <c s="58" r="F200"/>
       <c s="53" r="G200">
         <f>SUM(H200:M200)</f>
         <v>6741.90000049663</v>
@@ -21150,11 +21150,11 @@
       <c s="13" r="D201">
         <v>15</v>
       </c>
-      <c s="59" r="E201">
+      <c s="58" r="E201">
         <f>((1/(INDEX(E0!J$20:J$44,C201,1)-INDEX(E0!J$20:J$44,D201,1))))*100000000</f>
         <v>405.068546570348</v>
       </c>
-      <c s="59" r="F201"/>
+      <c s="58" r="F201"/>
       <c s="53" r="G201">
         <f>SUM(H201:M201)</f>
         <v>1705400004.5652</v>
@@ -21238,11 +21238,11 @@
       <c s="13" r="D202">
         <v>16</v>
       </c>
-      <c s="59" r="E202">
+      <c s="58" r="E202">
         <f>((1/(INDEX(E0!J$20:J$44,C202,1)-INDEX(E0!J$20:J$44,D202,1))))*100000000</f>
         <v>405.193320650673</v>
       </c>
-      <c s="59" r="F202"/>
+      <c s="58" r="F202"/>
       <c s="53" r="G202">
         <f>SUM(H202:M202)</f>
         <v>40472.000031102</v>
@@ -21326,11 +21326,11 @@
       <c s="13" r="D203">
         <v>17</v>
       </c>
-      <c s="59" r="E203">
+      <c s="58" r="E203">
         <f>((1/(INDEX(E0!J$20:J$44,C203,1)-INDEX(E0!J$20:J$44,D203,1))))*100000000</f>
         <v>425504.755014558</v>
       </c>
-      <c s="59" r="F203"/>
+      <c s="58" r="F203"/>
       <c s="53" r="G203">
         <f>SUM(H203:M203)</f>
         <v>0.0001159335638</v>
@@ -21414,11 +21414,11 @@
       <c s="13" r="D204">
         <v>18</v>
       </c>
-      <c s="59" r="E204">
+      <c s="58" r="E204">
         <f>((1/(INDEX(E0!J$20:J$44,C204,1)-INDEX(E0!J$20:J$44,D204,1))))*100000000</f>
         <v>445585.142407858</v>
       </c>
-      <c s="59" r="F204"/>
+      <c s="58" r="F204"/>
       <c s="53" r="G204">
         <f>SUM(H204:M204)</f>
         <v>117.45</v>
@@ -21502,11 +21502,11 @@
       <c s="13" r="D205">
         <v>1</v>
       </c>
-      <c s="59" r="E205">
+      <c s="58" r="E205">
         <f>((1/(INDEX(E0!J$20:J$44,C205,1)-INDEX(E0!J$20:J$44,D205,1))))*100000000</f>
         <v>9.48060505221443</v>
       </c>
-      <c s="59" r="F205"/>
+      <c s="58" r="F205"/>
       <c s="53" r="G205">
         <f>SUM(H205:M205)</f>
         <v>25586.0014209</v>
@@ -21590,11 +21590,11 @@
       <c s="13" r="D206">
         <v>2</v>
       </c>
-      <c s="59" r="E206">
+      <c s="58" r="E206">
         <f>((1/(INDEX(E0!J$20:J$44,C206,1)-INDEX(E0!J$20:J$44,D206,1))))*100000000</f>
         <v>43.310356784829</v>
       </c>
-      <c s="59" r="F206"/>
+      <c s="58" r="F206"/>
       <c s="53" r="G206">
         <f>SUM(H206:M206)</f>
         <v>32152000.045726</v>
@@ -21678,11 +21678,11 @@
       <c s="13" r="D207">
         <v>3</v>
       </c>
-      <c s="59" r="E207">
+      <c s="58" r="E207">
         <f>((1/(INDEX(E0!J$20:J$44,C207,1)-INDEX(E0!J$20:J$44,D207,1))))*100000000</f>
         <v>43.3134156591425</v>
       </c>
-      <c s="59" r="F207"/>
+      <c s="58" r="F207"/>
       <c s="53" r="G207">
         <f>SUM(H207:M207)</f>
         <v>7080.200072314</v>
@@ -21766,11 +21766,11 @@
       <c s="13" r="D208">
         <v>4</v>
       </c>
-      <c s="59" r="E208">
+      <c s="58" r="E208">
         <f>((1/(INDEX(E0!J$20:J$44,C208,1)-INDEX(E0!J$20:J$44,D208,1))))*100000000</f>
         <v>43.3793568789108</v>
       </c>
-      <c s="59" r="F208"/>
+      <c s="58" r="F208"/>
       <c s="53" r="G208">
         <f>SUM(H208:M208)</f>
         <v>9177100.3959779</v>
@@ -21854,11 +21854,11 @@
       <c s="13" r="D209">
         <v>5</v>
       </c>
-      <c s="59" r="E209">
+      <c s="58" r="E209">
         <f>((1/(INDEX(E0!J$20:J$44,C209,1)-INDEX(E0!J$20:J$44,D209,1))))*100000000</f>
         <v>127.897618059062</v>
       </c>
-      <c s="59" r="F209"/>
+      <c s="58" r="F209"/>
       <c s="53" r="G209">
         <f>SUM(H209:M209)</f>
         <v>22381.0000036387</v>
@@ -21942,11 +21942,11 @@
       <c s="13" r="D210">
         <v>6</v>
       </c>
-      <c s="59" r="E210">
+      <c s="58" r="E210">
         <f>((1/(INDEX(E0!J$20:J$44,C210,1)-INDEX(E0!J$20:J$44,D210,1))))*100000000</f>
         <v>127.905597892095</v>
       </c>
-      <c s="59" r="F210"/>
+      <c s="58" r="F210"/>
       <c s="53" r="G210">
         <f>SUM(H210:M210)</f>
         <v>105.810000083634</v>
@@ -22030,11 +22030,11 @@
       <c s="13" r="D211">
         <v>7</v>
       </c>
-      <c s="59" r="E211">
+      <c s="58" r="E211">
         <f>((1/(INDEX(E0!J$20:J$44,C211,1)-INDEX(E0!J$20:J$44,D211,1))))*100000000</f>
         <v>128.075582758019</v>
       </c>
-      <c s="59" r="F211"/>
+      <c s="58" r="F211"/>
       <c s="53" r="G211">
         <f>SUM(H211:M211)</f>
         <v>42461000070.7707</v>
@@ -22118,11 +22118,11 @@
       <c s="13" r="D212">
         <v>8</v>
       </c>
-      <c s="59" r="E212">
+      <c s="58" r="E212">
         <f>((1/(INDEX(E0!J$20:J$44,C212,1)-INDEX(E0!J$20:J$44,D212,1))))*100000000</f>
         <v>128.075884859319</v>
       </c>
-      <c s="59" r="F212"/>
+      <c s="58" r="F212"/>
       <c s="53" r="G212">
         <f>SUM(H212:M212)</f>
         <v>5829.20681336279</v>
@@ -22206,11 +22206,11 @@
       <c s="13" r="D213">
         <v>9</v>
       </c>
-      <c s="59" r="E213">
+      <c s="58" r="E213">
         <f>((1/(INDEX(E0!J$20:J$44,C213,1)-INDEX(E0!J$20:J$44,D213,1))))*100000000</f>
         <v>128.134970661772</v>
       </c>
-      <c s="59" r="F213"/>
+      <c s="58" r="F213"/>
       <c s="53" r="G213">
         <f>SUM(H213:M213)</f>
         <v>3027400001.871</v>
@@ -22294,11 +22294,11 @@
       <c s="13" r="D214">
         <v>10</v>
       </c>
-      <c s="59" r="E214">
+      <c s="58" r="E214">
         <f>((1/(INDEX(E0!J$20:J$44,C214,1)-INDEX(E0!J$20:J$44,D214,1))))*100000000</f>
         <v>403.941842230899</v>
       </c>
-      <c s="59" r="F214"/>
+      <c s="58" r="F214"/>
       <c s="53" r="G214">
         <f>SUM(H214:M214)</f>
         <v>733950.000012007</v>
@@ -22382,11 +22382,11 @@
       <c s="13" r="D215">
         <v>11</v>
       </c>
-      <c s="59" r="E215">
+      <c s="58" r="E215">
         <f>((1/(INDEX(E0!J$20:J$44,C215,1)-INDEX(E0!J$20:J$44,D215,1))))*100000000</f>
         <v>403.975539442677</v>
       </c>
-      <c s="59" r="F215"/>
+      <c s="58" r="F215"/>
       <c s="53" r="G215">
         <f>SUM(H215:M215)</f>
         <v>12.5710000065178</v>
@@ -22470,11 +22470,11 @@
       <c s="13" r="D216">
         <v>12</v>
       </c>
-      <c s="59" r="E216">
+      <c s="58" r="E216">
         <f>((1/(INDEX(E0!J$20:J$44,C216,1)-INDEX(E0!J$20:J$44,D216,1))))*100000000</f>
         <v>404.691001645803</v>
       </c>
-      <c s="59" r="F216"/>
+      <c s="58" r="F216"/>
       <c s="53" r="G216">
         <f>SUM(H216:M216)</f>
         <v>24140000008.6658</v>
@@ -22558,11 +22558,11 @@
       <c s="13" r="D217">
         <v>13</v>
       </c>
-      <c s="59" r="E217">
+      <c s="58" r="E217">
         <f>((1/(INDEX(E0!J$20:J$44,C217,1)-INDEX(E0!J$20:J$44,D217,1))))*100000000</f>
         <v>404.692293833153</v>
       </c>
-      <c s="59" r="F217"/>
+      <c s="58" r="F217"/>
       <c s="53" r="G217">
         <f>SUM(H217:M217)</f>
         <v>208640.000374611</v>
@@ -22646,11 +22646,11 @@
       <c s="13" r="D218">
         <v>14</v>
       </c>
-      <c s="59" r="E218">
+      <c s="58" r="E218">
         <f>((1/(INDEX(E0!J$20:J$44,C218,1)-INDEX(E0!J$20:J$44,D218,1))))*100000000</f>
         <v>404.940764880221</v>
       </c>
-      <c s="59" r="F218"/>
+      <c s="58" r="F218"/>
       <c s="53" r="G218">
         <f>SUM(H218:M218)</f>
         <v>131150.012844179</v>
@@ -22734,11 +22734,11 @@
       <c s="13" r="D219">
         <v>15</v>
       </c>
-      <c s="59" r="E219">
+      <c s="58" r="E219">
         <f>((1/(INDEX(E0!J$20:J$44,C219,1)-INDEX(E0!J$20:J$44,D219,1))))*100000000</f>
         <v>404.941215817534</v>
       </c>
-      <c s="59" r="F219"/>
+      <c s="58" r="F219"/>
       <c s="53" r="G219">
         <f>SUM(H219:M219)</f>
         <v>1724200003.1867</v>
@@ -22822,11 +22822,11 @@
       <c s="13" r="D220">
         <v>16</v>
       </c>
-      <c s="59" r="E220">
+      <c s="58" r="E220">
         <f>((1/(INDEX(E0!J$20:J$44,C220,1)-INDEX(E0!J$20:J$44,D220,1))))*100000000</f>
         <v>405.065911454219</v>
       </c>
-      <c s="59" r="F220"/>
+      <c s="58" r="F220"/>
       <c s="53" r="G220">
         <f>SUM(H220:M220)</f>
         <v>21850.011953489</v>
@@ -22910,11 +22910,11 @@
       <c s="13" r="D221">
         <v>17</v>
       </c>
-      <c s="59" r="E221">
+      <c s="58" r="E221">
         <f>((1/(INDEX(E0!J$20:J$44,C221,1)-INDEX(E0!J$20:J$44,D221,1))))*100000000</f>
         <v>319854.65804244</v>
       </c>
-      <c s="59" r="F221"/>
+      <c s="58" r="F221"/>
       <c s="53" r="G221">
         <f>SUM(H221:M221)</f>
         <v>0.0000000087575</v>
@@ -22998,11 +22998,11 @@
       <c s="13" r="D222">
         <v>18</v>
       </c>
-      <c s="59" r="E222">
+      <c s="58" r="E222">
         <f>((1/(INDEX(E0!J$20:J$44,C222,1)-INDEX(E0!J$20:J$44,D222,1))))*100000000</f>
         <v>331069.918655125</v>
       </c>
-      <c s="59" r="F222"/>
+      <c s="58" r="F222"/>
       <c s="53" r="G222">
         <f>SUM(H222:M222)</f>
         <v>0</v>
@@ -23086,11 +23086,11 @@
       <c s="13" r="D223">
         <v>19</v>
       </c>
-      <c s="59" r="E223">
+      <c s="58" r="E223">
         <f>((1/(INDEX(E0!J$20:J$44,C223,1)-INDEX(E0!J$20:J$44,D223,1))))*100000000</f>
         <v>1281492.68267703</v>
       </c>
-      <c s="59" r="F223"/>
+      <c s="58" r="F223"/>
       <c s="53" r="G223">
         <f>SUM(H223:M223)</f>
         <v>3.46</v>
@@ -23174,11 +23174,11 @@
       <c s="13" r="D224">
         <v>20</v>
       </c>
-      <c s="59" r="E224">
+      <c s="58" r="E224">
         <f>((1/(INDEX(E0!J$20:J$44,C224,1)-INDEX(E0!J$20:J$44,D224,1))))*100000000</f>
         <v>1288211.57586378</v>
       </c>
-      <c s="59" r="F224"/>
+      <c s="58" r="F224"/>
       <c s="53" r="G224">
         <f>SUM(H224:M224)</f>
         <v>0.000000000002424</v>
@@ -23262,11 +23262,11 @@
       <c s="13" r="D225">
         <v>1</v>
       </c>
-      <c s="59" r="E225">
+      <c s="58" r="E225">
         <f>((1/(INDEX(E0!J$20:J$44,C225,1)-INDEX(E0!J$20:J$44,D225,1))))*100000000</f>
         <v>9.48060492458217</v>
       </c>
-      <c s="59" r="F225"/>
+      <c s="58" r="F225"/>
       <c s="53" r="G225">
         <f>SUM(H225:M225)</f>
         <v>183880267.81</v>
@@ -23350,11 +23350,11 @@
       <c s="13" r="D226">
         <v>2</v>
       </c>
-      <c s="59" r="E226">
+      <c s="58" r="E226">
         <f>((1/(INDEX(E0!J$20:J$44,C226,1)-INDEX(E0!J$20:J$44,D226,1))))*100000000</f>
         <v>43.3103541212116</v>
       </c>
-      <c s="59" r="F226"/>
+      <c s="58" r="F226"/>
       <c s="53" r="G226">
         <f>SUM(H226:M226)</f>
         <v>1359.222</v>
@@ -23438,11 +23438,11 @@
       <c s="13" r="D227">
         <v>3</v>
       </c>
-      <c s="59" r="E227">
+      <c s="58" r="E227">
         <f>((1/(INDEX(E0!J$20:J$44,C227,1)-INDEX(E0!J$20:J$44,D227,1))))*100000000</f>
         <v>43.3134129951488</v>
       </c>
-      <c s="59" r="F227"/>
+      <c s="58" r="F227"/>
       <c s="53" r="G227">
         <f>SUM(H227:M227)</f>
         <v>994980.069271</v>
@@ -23526,11 +23526,11 @@
       <c s="13" r="D228">
         <v>4</v>
       </c>
-      <c s="59" r="E228">
+      <c s="58" r="E228">
         <f>((1/(INDEX(E0!J$20:J$44,C228,1)-INDEX(E0!J$20:J$44,D228,1))))*100000000</f>
         <v>43.3793542067995</v>
       </c>
-      <c s="59" r="F228"/>
+      <c s="58" r="F228"/>
       <c s="53" r="G228">
         <f>SUM(H228:M228)</f>
         <v>94303007195.534</v>
@@ -23614,11 +23614,11 @@
       <c s="13" r="D229">
         <v>5</v>
       </c>
-      <c s="59" r="E229">
+      <c s="58" r="E229">
         <f>((1/(INDEX(E0!J$20:J$44,C229,1)-INDEX(E0!J$20:J$44,D229,1))))*100000000</f>
         <v>127.897594830989</v>
       </c>
-      <c s="59" r="F229"/>
+      <c s="58" r="F229"/>
       <c s="53" r="G229">
         <f>SUM(H229:M229)</f>
         <v>58.6916</v>
@@ -23702,11 +23702,11 @@
       <c s="13" r="D230">
         <v>6</v>
       </c>
-      <c s="59" r="E230">
+      <c s="58" r="E230">
         <f>((1/(INDEX(E0!J$20:J$44,C230,1)-INDEX(E0!J$20:J$44,D230,1))))*100000000</f>
         <v>127.905574661124</v>
       </c>
-      <c s="59" r="F230"/>
+      <c s="58" r="F230"/>
       <c s="53" r="G230">
         <f>SUM(H230:M230)</f>
         <v>1099200.0087889</v>
@@ -23790,11 +23790,11 @@
       <c s="13" r="D231">
         <v>7</v>
       </c>
-      <c s="59" r="E231">
+      <c s="58" r="E231">
         <f>((1/(INDEX(E0!J$20:J$44,C231,1)-INDEX(E0!J$20:J$44,D231,1))))*100000000</f>
         <v>128.075559465259</v>
       </c>
-      <c s="59" r="F231"/>
+      <c s="58" r="F231"/>
       <c s="53" r="G231">
         <f>SUM(H231:M231)</f>
         <v>114810.085936322</v>
@@ -23878,11 +23878,11 @@
       <c s="13" r="D232">
         <v>8</v>
       </c>
-      <c s="59" r="E232">
+      <c s="58" r="E232">
         <f>((1/(INDEX(E0!J$20:J$44,C232,1)-INDEX(E0!J$20:J$44,D232,1))))*100000000</f>
         <v>128.075861566449</v>
       </c>
-      <c s="59" r="F232"/>
+      <c s="58" r="F232"/>
       <c s="53" r="G232">
         <f>SUM(H232:M232)</f>
         <v>33942000299.3808</v>
@@ -23966,11 +23966,11 @@
       <c s="13" r="D233">
         <v>9</v>
       </c>
-      <c s="59" r="E233">
+      <c s="58" r="E233">
         <f>((1/(INDEX(E0!J$20:J$44,C233,1)-INDEX(E0!J$20:J$44,D233,1))))*100000000</f>
         <v>128.134947347406</v>
       </c>
-      <c s="59" r="F233"/>
+      <c s="58" r="F233"/>
       <c s="53" r="G233">
         <f>SUM(H233:M233)</f>
         <v>458550.6320815</v>
@@ -24054,11 +24054,11 @@
       <c s="13" r="D234">
         <v>10</v>
       </c>
-      <c s="59" r="E234">
+      <c s="58" r="E234">
         <f>((1/(INDEX(E0!J$20:J$44,C234,1)-INDEX(E0!J$20:J$44,D234,1))))*100000000</f>
         <v>403.941610531033</v>
       </c>
-      <c s="59" r="F234"/>
+      <c s="58" r="F234"/>
       <c s="53" r="G234">
         <f>SUM(H234:M234)</f>
         <v>9.7159</v>
@@ -24142,11 +24142,11 @@
       <c s="13" r="D235">
         <v>11</v>
       </c>
-      <c s="59" r="E235">
+      <c s="58" r="E235">
         <f>((1/(INDEX(E0!J$20:J$44,C235,1)-INDEX(E0!J$20:J$44,D235,1))))*100000000</f>
         <v>403.975307704152</v>
       </c>
-      <c s="59" r="F235"/>
+      <c s="58" r="F235"/>
       <c s="53" r="G235">
         <f>SUM(H235:M235)</f>
         <v>542090.00043465</v>
@@ -24230,11 +24230,11 @@
       <c s="13" r="D236">
         <v>12</v>
       </c>
-      <c s="59" r="E236">
+      <c s="58" r="E236">
         <f>((1/(INDEX(E0!J$20:J$44,C236,1)-INDEX(E0!J$20:J$44,D236,1))))*100000000</f>
         <v>404.690769085709</v>
       </c>
-      <c s="59" r="F236"/>
+      <c s="58" r="F236"/>
       <c s="53" r="G236">
         <f>SUM(H236:M236)</f>
         <v>53190.0210164281</v>
@@ -24318,11 +24318,11 @@
       <c s="13" r="D237">
         <v>13</v>
       </c>
-      <c s="59" r="E237">
+      <c s="58" r="E237">
         <f>((1/(INDEX(E0!J$20:J$44,C237,1)-INDEX(E0!J$20:J$44,D237,1))))*100000000</f>
         <v>404.692061271574</v>
       </c>
-      <c s="59" r="F237"/>
+      <c s="58" r="F237"/>
       <c s="53" r="G237">
         <f>SUM(H237:M237)</f>
         <v>14860000018.8131</v>
@@ -24406,11 +24406,11 @@
       <c s="13" r="D238">
         <v>14</v>
       </c>
-      <c s="59" r="E238">
+      <c s="58" r="E238">
         <f>((1/(INDEX(E0!J$20:J$44,C238,1)-INDEX(E0!J$20:J$44,D238,1))))*100000000</f>
         <v>404.940532032981</v>
       </c>
-      <c s="59" r="F238"/>
+      <c s="58" r="F238"/>
       <c s="53" r="G238">
         <f>SUM(H238:M238)</f>
         <v>24062000.52377</v>
@@ -24494,11 +24494,11 @@
       <c s="13" r="D239">
         <v>15</v>
       </c>
-      <c s="59" r="E239">
+      <c s="58" r="E239">
         <f>((1/(INDEX(E0!J$20:J$44,C239,1)-INDEX(E0!J$20:J$44,D239,1))))*100000000</f>
         <v>404.940982969775</v>
       </c>
-      <c s="59" r="F239"/>
+      <c s="58" r="F239"/>
       <c s="53" r="G239">
         <f>SUM(H239:M239)</f>
         <v>212640.02933248</v>
@@ -24582,11 +24582,11 @@
       <c s="13" r="D240">
         <v>16</v>
       </c>
-      <c s="59" r="E240">
+      <c s="58" r="E240">
         <f>((1/(INDEX(E0!J$20:J$44,C240,1)-INDEX(E0!J$20:J$44,D240,1))))*100000000</f>
         <v>405.065678463034</v>
       </c>
-      <c s="59" r="F240"/>
+      <c s="58" r="F240"/>
       <c s="53" r="G240">
         <f>SUM(H240:M240)</f>
         <v>482440001.9448</v>
@@ -24670,11 +24670,11 @@
       <c s="13" r="D241">
         <v>17</v>
       </c>
-      <c s="59" r="E241">
+      <c s="58" r="E241">
         <f>((1/(INDEX(E0!J$20:J$44,C241,1)-INDEX(E0!J$20:J$44,D241,1))))*100000000</f>
         <v>319709.44805172</v>
       </c>
-      <c s="59" r="F241"/>
+      <c s="58" r="F241"/>
       <c s="53" r="G241">
         <f>SUM(H241:M241)</f>
         <v>0.000000000000075</v>
@@ -24758,11 +24758,11 @@
       <c s="13" r="D242">
         <v>18</v>
       </c>
-      <c s="59" r="E242">
+      <c s="58" r="E242">
         <f>((1/(INDEX(E0!J$20:J$44,C242,1)-INDEX(E0!J$20:J$44,D242,1))))*100000000</f>
         <v>330914.349436928</v>
       </c>
-      <c s="59" r="F242"/>
+      <c s="58" r="F242"/>
       <c s="53" r="G242">
         <f>SUM(H242:M242)</f>
         <v>0.000000013126</v>
@@ -24846,11 +24846,11 @@
       <c s="13" r="D243">
         <v>19</v>
       </c>
-      <c s="59" r="E243">
+      <c s="58" r="E243">
         <f>((1/(INDEX(E0!J$20:J$44,C243,1)-INDEX(E0!J$20:J$44,D243,1))))*100000000</f>
         <v>1279164.96109851</v>
       </c>
-      <c s="59" r="F243"/>
+      <c s="58" r="F243"/>
       <c s="53" r="G243">
         <f>SUM(H243:M243)</f>
         <v>0.000005118903362</v>
@@ -24934,11 +24934,11 @@
       <c s="13" r="D244">
         <v>20</v>
       </c>
-      <c s="59" r="E244">
+      <c s="58" r="E244">
         <f>((1/(INDEX(E0!J$20:J$44,C244,1)-INDEX(E0!J$20:J$44,D244,1))))*100000000</f>
         <v>1285859.40411206</v>
       </c>
-      <c s="59" r="F244"/>
+      <c s="58" r="F244"/>
       <c s="53" r="G244">
         <f>SUM(H244:M244)</f>
         <v>4.5406</v>
@@ -25022,11 +25022,11 @@
       <c s="13" r="D245">
         <v>1</v>
       </c>
-      <c s="59" r="E245">
+      <c s="58" r="E245">
         <f>((1/(INDEX(E0!J$20:J$44,C245,1)-INDEX(E0!J$20:J$44,D245,1))))*100000000</f>
         <v>9.48057000596392</v>
       </c>
-      <c s="59" r="F245"/>
+      <c s="58" r="F245"/>
       <c s="53" r="G245">
         <f>SUM(H245:M245)</f>
         <v>0.000000029246</v>
@@ -25100,11 +25100,11 @@
       <c s="13" r="D246">
         <v>2</v>
       </c>
-      <c s="59" r="E246">
+      <c s="58" r="E246">
         <f>((1/(INDEX(E0!J$20:J$44,C246,1)-INDEX(E0!J$20:J$44,D246,1))))*100000000</f>
         <v>43.3096253978144</v>
       </c>
-      <c s="59" r="F246"/>
+      <c s="58" r="F246"/>
       <c s="53" r="G246">
         <f>SUM(H246:M246)</f>
         <v>2509.7</v>
@@ -25178,11 +25178,11 @@
       <c s="13" r="D247">
         <v>3</v>
       </c>
-      <c s="59" r="E247">
+      <c s="58" r="E247">
         <f>((1/(INDEX(E0!J$20:J$44,C247,1)-INDEX(E0!J$20:J$44,D247,1))))*100000000</f>
         <v>43.312684168814</v>
       </c>
-      <c s="59" r="F247"/>
+      <c s="58" r="F247"/>
       <c s="53" r="G247">
         <f>SUM(H247:M247)</f>
         <v>0.0000000030374</v>
@@ -25256,11 +25256,11 @@
       <c s="13" r="D248">
         <v>4</v>
       </c>
-      <c s="59" r="E248">
+      <c s="58" r="E248">
         <f>((1/(INDEX(E0!J$20:J$44,C248,1)-INDEX(E0!J$20:J$44,D248,1))))*100000000</f>
         <v>43.3786231596345</v>
       </c>
-      <c s="59" r="F248"/>
+      <c s="58" r="F248"/>
       <c s="53" r="G248">
         <f>SUM(H248:M248)</f>
         <v>837.260012764</v>
@@ -25344,11 +25344,11 @@
       <c s="13" r="D249">
         <v>5</v>
       </c>
-      <c s="59" r="E249">
+      <c s="58" r="E249">
         <f>((1/(INDEX(E0!J$20:J$44,C249,1)-INDEX(E0!J$20:J$44,D249,1))))*100000000</f>
         <v>127.891240208901</v>
       </c>
-      <c s="59" r="F249"/>
+      <c s="58" r="F249"/>
       <c s="53" r="G249">
         <f>SUM(H249:M249)</f>
         <v>1066.6</v>
@@ -25422,11 +25422,11 @@
       <c s="13" r="D250">
         <v>6</v>
       </c>
-      <c s="59" r="E250">
+      <c s="58" r="E250">
         <f>((1/(INDEX(E0!J$20:J$44,C250,1)-INDEX(E0!J$20:J$44,D250,1))))*100000000</f>
         <v>127.899219246072</v>
       </c>
-      <c s="59" r="F250"/>
+      <c s="58" r="F250"/>
       <c s="53" r="G250">
         <f>SUM(H250:M250)</f>
         <v>0.000000000076748</v>
@@ -25500,11 +25500,11 @@
       <c s="13" r="D251">
         <v>7</v>
       </c>
-      <c s="59" r="E251">
+      <c s="58" r="E251">
         <f>((1/(INDEX(E0!J$20:J$44,C251,1)-INDEX(E0!J$20:J$44,D251,1))))*100000000</f>
         <v>128.069187146879</v>
       </c>
-      <c s="59" r="F251"/>
+      <c s="58" r="F251"/>
       <c s="53" r="G251">
         <f>SUM(H251:M251)</f>
         <v>10454000.0089323</v>
@@ -25588,11 +25588,11 @@
       <c s="13" r="D252">
         <v>8</v>
       </c>
-      <c s="59" r="E252">
+      <c s="58" r="E252">
         <f>((1/(INDEX(E0!J$20:J$44,C252,1)-INDEX(E0!J$20:J$44,D252,1))))*100000000</f>
         <v>128.069489218008</v>
       </c>
-      <c s="59" r="F252"/>
+      <c s="58" r="F252"/>
       <c s="53" r="G252">
         <f>SUM(H252:M252)</f>
         <v>354.3300016936</v>
@@ -25676,11 +25676,11 @@
       <c s="13" r="D253">
         <v>9</v>
       </c>
-      <c s="59" r="E253">
+      <c s="58" r="E253">
         <f>((1/(INDEX(E0!J$20:J$44,C253,1)-INDEX(E0!J$20:J$44,D253,1))))*100000000</f>
         <v>128.12856911819</v>
       </c>
-      <c s="59" r="F253"/>
+      <c s="58" r="F253"/>
       <c s="53" r="G253">
         <f>SUM(H253:M253)</f>
         <v>1161200.01421456</v>
@@ -25764,11 +25764,11 @@
       <c s="13" r="D254">
         <v>10</v>
       </c>
-      <c s="59" r="E254">
+      <c s="58" r="E254">
         <f>((1/(INDEX(E0!J$20:J$44,C254,1)-INDEX(E0!J$20:J$44,D254,1))))*100000000</f>
         <v>403.878230041589</v>
       </c>
-      <c s="59" r="F254"/>
+      <c s="58" r="F254"/>
       <c s="53" r="G254">
         <f>SUM(H254:M254)</f>
         <v>9.9274</v>
@@ -25842,11 +25842,11 @@
       <c s="13" r="D255">
         <v>11</v>
       </c>
-      <c s="59" r="E255">
+      <c s="58" r="E255">
         <f>((1/(INDEX(E0!J$20:J$44,C255,1)-INDEX(E0!J$20:J$44,D255,1))))*100000000</f>
         <v>403.911916640582</v>
       </c>
-      <c s="59" r="F255"/>
+      <c s="58" r="F255"/>
       <c s="53" r="G255">
         <f>SUM(H255:M255)</f>
         <v>0.000000000000088</v>
@@ -25920,11 +25920,11 @@
       <c s="13" r="D256">
         <v>12</v>
       </c>
-      <c s="59" r="E256">
+      <c s="58" r="E256">
         <f>((1/(INDEX(E0!J$20:J$44,C256,1)-INDEX(E0!J$20:J$44,D256,1))))*100000000</f>
         <v>404.627153303211</v>
       </c>
-      <c s="59" r="F256"/>
+      <c s="58" r="F256"/>
       <c s="53" r="G256">
         <f>SUM(H256:M256)</f>
         <v>902280.000077239</v>
@@ -26008,11 +26008,11 @@
       <c s="13" r="D257">
         <v>13</v>
       </c>
-      <c s="59" r="E257">
+      <c s="58" r="E257">
         <f>((1/(INDEX(E0!J$20:J$44,C257,1)-INDEX(E0!J$20:J$44,D257,1))))*100000000</f>
         <v>404.628445082854</v>
       </c>
-      <c s="59" r="F257"/>
+      <c s="58" r="F257"/>
       <c s="53" r="G257">
         <f>SUM(H257:M257)</f>
         <v>3.2756000098668</v>
@@ -26096,11 +26096,11 @@
       <c s="13" r="D258">
         <v>14</v>
       </c>
-      <c s="59" r="E258">
+      <c s="58" r="E258">
         <f>((1/(INDEX(E0!J$20:J$44,C258,1)-INDEX(E0!J$20:J$44,D258,1))))*100000000</f>
         <v>404.876837708943</v>
       </c>
-      <c s="59" r="F258"/>
+      <c s="58" r="F258"/>
       <c s="53" r="G258">
         <f>SUM(H258:M258)</f>
         <v>41055000020.0769</v>
@@ -26184,11 +26184,11 @@
       <c s="13" r="D259">
         <v>15</v>
       </c>
-      <c s="59" r="E259">
+      <c s="58" r="E259">
         <f>((1/(INDEX(E0!J$20:J$44,C259,1)-INDEX(E0!J$20:J$44,D259,1))))*100000000</f>
         <v>404.877288503891</v>
       </c>
-      <c s="59" r="F259"/>
+      <c s="58" r="F259"/>
       <c s="53" r="G259">
         <f>SUM(H259:M259)</f>
         <v>100030.000538981</v>
@@ -26272,11 +26272,11 @@
       <c s="13" r="D260">
         <v>16</v>
       </c>
-      <c s="59" r="E260">
+      <c s="58" r="E260">
         <f>((1/(INDEX(E0!J$20:J$44,C260,1)-INDEX(E0!J$20:J$44,D260,1))))*100000000</f>
         <v>405.001944766688</v>
       </c>
-      <c s="59" r="F260"/>
+      <c s="58" r="F260"/>
       <c s="53" r="G260">
         <f>SUM(H260:M260)</f>
         <v>1519800000.91389</v>
@@ -26360,11 +26360,11 @@
       <c s="13" r="D261">
         <v>17</v>
       </c>
-      <c s="59" r="E261">
+      <c s="58" r="E261">
         <f>((1/(INDEX(E0!J$20:J$44,C261,1)-INDEX(E0!J$20:J$44,D261,1))))*100000000</f>
         <v>284386.930031479</v>
       </c>
-      <c s="59" r="F261"/>
+      <c s="58" r="F261"/>
       <c s="53" r="G261">
         <f>SUM(H261:M261)</f>
         <v>0</v>
@@ -26438,11 +26438,11 @@
       <c s="13" r="D262">
         <v>18</v>
       </c>
-      <c s="59" r="E262">
+      <c s="58" r="E262">
         <f>((1/(INDEX(E0!J$20:J$44,C262,1)-INDEX(E0!J$20:J$44,D262,1))))*100000000</f>
         <v>293218.501148885</v>
       </c>
-      <c s="59" r="F262"/>
+      <c s="58" r="F262"/>
       <c s="53" r="G262">
         <f>SUM(H262:M262)</f>
         <v>0</v>
@@ -26516,11 +26516,11 @@
       <c s="13" r="D263">
         <v>19</v>
       </c>
-      <c s="59" r="E263">
+      <c s="58" r="E263">
         <f>((1/(INDEX(E0!J$20:J$44,C263,1)-INDEX(E0!J$20:J$44,D263,1))))*100000000</f>
         <v>854513.884146312</v>
       </c>
-      <c s="59" r="F263"/>
+      <c s="58" r="F263"/>
       <c s="53" r="G263">
         <f>SUM(H263:M263)</f>
         <v>0.000000000035472</v>
@@ -26604,11 +26604,11 @@
       <c s="13" r="D264">
         <v>20</v>
       </c>
-      <c s="59" r="E264">
+      <c s="58" r="E264">
         <f>((1/(INDEX(E0!J$20:J$44,C264,1)-INDEX(E0!J$20:J$44,D264,1))))*100000000</f>
         <v>857496.145557061</v>
       </c>
-      <c s="59" r="F264"/>
+      <c s="58" r="F264"/>
       <c s="53" r="G264">
         <f>SUM(H264:M264)</f>
         <v>0</v>
@@ -26692,11 +26692,11 @@
       <c s="13" r="D265">
         <v>21</v>
       </c>
-      <c s="59" r="E265">
+      <c s="58" r="E265">
         <f>((1/(INDEX(E0!J$20:J$44,C265,1)-INDEX(E0!J$20:J$44,D265,1))))*100000000</f>
         <v>2564654.95136441</v>
       </c>
-      <c s="59" r="F265"/>
+      <c s="58" r="F265"/>
       <c s="53" r="G265">
         <f>SUM(H265:M265)</f>
         <v>0.26025</v>
@@ -26780,11 +26780,11 @@
       <c s="13" r="D266">
         <v>22</v>
       </c>
-      <c s="59" r="E266">
+      <c s="58" r="E266">
         <f>((1/(INDEX(E0!J$20:J$44,C266,1)-INDEX(E0!J$20:J$44,D266,1))))*100000000</f>
         <v>2574029.07633552</v>
       </c>
-      <c s="59" r="F266"/>
+      <c s="58" r="F266"/>
       <c s="53" r="G266">
         <f>SUM(H266:M266)</f>
         <v>0.000000000000016</v>
@@ -26868,11 +26868,11 @@
       <c s="13" r="D267">
         <v>1</v>
       </c>
-      <c s="59" r="E267">
+      <c s="58" r="E267">
         <f>((1/(INDEX(E0!J$20:J$44,C267,1)-INDEX(E0!J$20:J$44,D267,1))))*100000000</f>
         <v>9.4805699390923</v>
       </c>
-      <c s="59" r="F267"/>
+      <c s="58" r="F267"/>
       <c s="53" r="G267">
         <f>SUM(H267:M267)</f>
         <v>25518</v>
@@ -26946,11 +26946,11 @@
       <c s="13" r="D268">
         <v>2</v>
       </c>
-      <c s="59" r="E268">
+      <c s="58" r="E268">
         <f>((1/(INDEX(E0!J$20:J$44,C268,1)-INDEX(E0!J$20:J$44,D268,1))))*100000000</f>
         <v>43.3096240022761</v>
       </c>
-      <c s="59" r="F268"/>
+      <c s="58" r="F268"/>
       <c s="53" r="G268">
         <f>SUM(H268:M268)</f>
         <v>0.92618</v>
@@ -27024,11 +27024,11 @@
       <c s="13" r="D269">
         <v>3</v>
       </c>
-      <c s="59" r="E269">
+      <c s="58" r="E269">
         <f>((1/(INDEX(E0!J$20:J$44,C269,1)-INDEX(E0!J$20:J$44,D269,1))))*100000000</f>
         <v>43.3126827730785</v>
       </c>
-      <c s="59" r="F269"/>
+      <c s="58" r="F269"/>
       <c s="53" r="G269">
         <f>SUM(H269:M269)</f>
         <v>7079.3</v>
@@ -27102,11 +27102,11 @@
       <c s="13" r="D270">
         <v>4</v>
       </c>
-      <c s="59" r="E270">
+      <c s="58" r="E270">
         <f>((1/(INDEX(E0!J$20:J$44,C270,1)-INDEX(E0!J$20:J$44,D270,1))))*100000000</f>
         <v>43.378621759646</v>
       </c>
-      <c s="59" r="F270"/>
+      <c s="58" r="F270"/>
       <c s="53" r="G270">
         <f>SUM(H270:M270)</f>
         <v>41276002.7671</v>
@@ -27190,11 +27190,11 @@
       <c s="13" r="D271">
         <v>5</v>
       </c>
-      <c s="59" r="E271">
+      <c s="58" r="E271">
         <f>((1/(INDEX(E0!J$20:J$44,C271,1)-INDEX(E0!J$20:J$44,D271,1))))*100000000</f>
         <v>127.891228039912</v>
       </c>
-      <c s="59" r="F271"/>
+      <c s="58" r="F271"/>
       <c s="53" r="G271">
         <f>SUM(H271:M271)</f>
         <v>0.000074971</v>
@@ -27268,11 +27268,11 @@
       <c s="13" r="D272">
         <v>6</v>
       </c>
-      <c s="59" r="E272">
+      <c s="58" r="E272">
         <f>((1/(INDEX(E0!J$20:J$44,C272,1)-INDEX(E0!J$20:J$44,D272,1))))*100000000</f>
         <v>127.899207075564</v>
       </c>
-      <c s="59" r="F272"/>
+      <c s="58" r="F272"/>
       <c s="53" r="G272">
         <f>SUM(H272:M272)</f>
         <v>105.62</v>
@@ -27346,11 +27346,11 @@
       <c s="13" r="D273">
         <v>7</v>
       </c>
-      <c s="59" r="E273">
+      <c s="58" r="E273">
         <f>((1/(INDEX(E0!J$20:J$44,C273,1)-INDEX(E0!J$20:J$44,D273,1))))*100000000</f>
         <v>128.069174944003</v>
       </c>
-      <c s="59" r="F273"/>
+      <c s="58" r="F273"/>
       <c s="53" r="G273">
         <f>SUM(H273:M273)</f>
         <v>88.2624</v>
@@ -27434,11 +27434,11 @@
       <c s="13" r="D274">
         <v>8</v>
       </c>
-      <c s="59" r="E274">
+      <c s="58" r="E274">
         <f>((1/(INDEX(E0!J$20:J$44,C274,1)-INDEX(E0!J$20:J$44,D274,1))))*100000000</f>
         <v>128.069477015074</v>
       </c>
-      <c s="59" r="F274"/>
+      <c s="58" r="F274"/>
       <c s="53" r="G274">
         <f>SUM(H274:M274)</f>
         <v>26667.00020457</v>
@@ -27522,11 +27522,11 @@
       <c s="13" r="D275">
         <v>9</v>
       </c>
-      <c s="59" r="E275">
+      <c s="58" r="E275">
         <f>((1/(INDEX(E0!J$20:J$44,C275,1)-INDEX(E0!J$20:J$44,D275,1))))*100000000</f>
         <v>128.128556903995</v>
       </c>
-      <c s="59" r="F275"/>
+      <c s="58" r="F275"/>
       <c s="53" r="G275">
         <f>SUM(H275:M275)</f>
         <v>45446000602.1261</v>
@@ -27610,11 +27610,11 @@
       <c s="13" r="D276">
         <v>10</v>
       </c>
-      <c s="59" r="E276">
+      <c s="58" r="E276">
         <f>((1/(INDEX(E0!J$20:J$44,C276,1)-INDEX(E0!J$20:J$44,D276,1))))*100000000</f>
         <v>403.878108682112</v>
       </c>
-      <c s="59" r="F276"/>
+      <c s="58" r="F276"/>
       <c s="53" r="G276">
         <f>SUM(H276:M276)</f>
         <v>0.00024338</v>
@@ -27688,11 +27688,11 @@
       <c s="13" r="D277">
         <v>11</v>
       </c>
-      <c s="59" r="E277">
+      <c s="58" r="E277">
         <f>((1/(INDEX(E0!J$20:J$44,C277,1)-INDEX(E0!J$20:J$44,D277,1))))*100000000</f>
         <v>403.91179526086</v>
       </c>
-      <c s="59" r="F277"/>
+      <c s="58" r="F277"/>
       <c s="53" r="G277">
         <f>SUM(H277:M277)</f>
         <v>12.583</v>
@@ -27766,11 +27766,11 @@
       <c s="13" r="D278">
         <v>12</v>
       </c>
-      <c s="59" r="E278">
+      <c s="58" r="E278">
         <f>((1/(INDEX(E0!J$20:J$44,C278,1)-INDEX(E0!J$20:J$44,D278,1))))*100000000</f>
         <v>404.627031493236</v>
       </c>
-      <c s="59" r="F278"/>
+      <c s="58" r="F278"/>
       <c s="53" r="G278">
         <f>SUM(H278:M278)</f>
         <v>6.9573</v>
@@ -27854,11 +27854,11 @@
       <c s="13" r="D279">
         <v>13</v>
       </c>
-      <c s="59" r="E279">
+      <c s="58" r="E279">
         <f>((1/(INDEX(E0!J$20:J$44,C279,1)-INDEX(E0!J$20:J$44,D279,1))))*100000000</f>
         <v>404.628323272102</v>
       </c>
-      <c s="59" r="F279"/>
+      <c s="58" r="F279"/>
       <c s="53" r="G279">
         <f>SUM(H279:M279)</f>
         <v>939330.00072377</v>
@@ -27942,11 +27942,11 @@
       <c s="13" r="D280">
         <v>14</v>
       </c>
-      <c s="59" r="E280">
+      <c s="58" r="E280">
         <f>((1/(INDEX(E0!J$20:J$44,C280,1)-INDEX(E0!J$20:J$44,D280,1))))*100000000</f>
         <v>404.876715748591</v>
       </c>
-      <c s="59" r="F280"/>
+      <c s="58" r="F280"/>
       <c s="53" r="G280">
         <f>SUM(H280:M280)</f>
         <v>16395.0030087692</v>
@@ -28030,11 +28030,11 @@
       <c s="13" r="D281">
         <v>15</v>
       </c>
-      <c s="59" r="E281">
+      <c s="58" r="E281">
         <f>((1/(INDEX(E0!J$20:J$44,C281,1)-INDEX(E0!J$20:J$44,D281,1))))*100000000</f>
         <v>404.877166543266</v>
       </c>
-      <c s="59" r="F281"/>
+      <c s="58" r="F281"/>
       <c s="53" r="G281">
         <f>SUM(H281:M281)</f>
         <v>25858000040.1065</v>
@@ -28118,11 +28118,11 @@
       <c s="13" r="D282">
         <v>16</v>
       </c>
-      <c s="59" r="E282">
+      <c s="58" r="E282">
         <f>((1/(INDEX(E0!J$20:J$44,C282,1)-INDEX(E0!J$20:J$44,D282,1))))*100000000</f>
         <v>405.001822730952</v>
       </c>
-      <c s="59" r="F282"/>
+      <c s="58" r="F282"/>
       <c s="53" r="G282">
         <f>SUM(H282:M282)</f>
         <v>136570.03047749</v>
@@ -28206,11 +28206,11 @@
       <c s="13" r="D283">
         <v>17</v>
       </c>
-      <c s="59" r="E283">
+      <c s="58" r="E283">
         <f>((1/(INDEX(E0!J$20:J$44,C283,1)-INDEX(E0!J$20:J$44,D283,1))))*100000000</f>
         <v>284326.771070999</v>
       </c>
-      <c s="59" r="F283"/>
+      <c s="58" r="F283"/>
       <c s="53" r="G283">
         <f>SUM(H283:M283)</f>
         <v>0</v>
@@ -28284,11 +28284,11 @@
       <c s="13" r="D284">
         <v>18</v>
       </c>
-      <c s="59" r="E284">
+      <c s="58" r="E284">
         <f>((1/(INDEX(E0!J$20:J$44,C284,1)-INDEX(E0!J$20:J$44,D284,1))))*100000000</f>
         <v>293154.548145763</v>
       </c>
-      <c s="59" r="F284"/>
+      <c s="58" r="F284"/>
       <c s="53" r="G284">
         <f>SUM(H284:M284)</f>
         <v>0</v>
@@ -28362,11 +28362,11 @@
       <c s="13" r="D285">
         <v>19</v>
       </c>
-      <c s="59" r="E285">
+      <c s="58" r="E285">
         <f>((1/(INDEX(E0!J$20:J$44,C285,1)-INDEX(E0!J$20:J$44,D285,1))))*100000000</f>
         <v>853970.964989907</v>
       </c>
-      <c s="59" r="F285"/>
+      <c s="58" r="F285"/>
       <c s="53" r="G285">
         <f>SUM(H285:M285)</f>
         <v>0.000000000000001</v>
@@ -28450,11 +28450,11 @@
       <c s="13" r="D286">
         <v>20</v>
       </c>
-      <c s="59" r="E286">
+      <c s="58" r="E286">
         <f>((1/(INDEX(E0!J$20:J$44,C286,1)-INDEX(E0!J$20:J$44,D286,1))))*100000000</f>
         <v>856949.431414271</v>
       </c>
-      <c s="59" r="F286"/>
+      <c s="58" r="F286"/>
       <c s="53" r="G286">
         <f>SUM(H286:M286)</f>
         <v>0.000000000082744</v>
@@ -28538,11 +28538,11 @@
       <c s="13" r="D287">
         <v>21</v>
       </c>
-      <c s="59" r="E287">
+      <c s="58" r="E287">
         <f>((1/(INDEX(E0!J$20:J$44,C287,1)-INDEX(E0!J$20:J$44,D287,1))))*100000000</f>
         <v>2559770.64457368</v>
       </c>
-      <c s="59" r="F287"/>
+      <c s="58" r="F287"/>
       <c s="53" r="G287">
         <f>SUM(H287:M287)</f>
         <v>0.000000684420036</v>
@@ -28626,11 +28626,11 @@
       <c s="13" r="D288">
         <v>22</v>
       </c>
-      <c s="59" r="E288">
+      <c s="58" r="E288">
         <f>((1/(INDEX(E0!J$20:J$44,C288,1)-INDEX(E0!J$20:J$44,D288,1))))*100000000</f>
         <v>2569109.03307194</v>
       </c>
-      <c s="59" r="F288"/>
+      <c s="58" r="F288"/>
       <c s="53" r="G288">
         <f>SUM(H288:M288)</f>
         <v>0.46263</v>
@@ -28714,11 +28714,11 @@
       <c s="13" r="D289">
         <v>4</v>
       </c>
-      <c s="59" r="E289">
+      <c s="58" r="E289">
         <f>((1/(INDEX(E0!J$20:J$44,C289,1)-INDEX(E0!J$20:J$44,D289,1))))*100000000</f>
         <v>43.3781822072612</v>
       </c>
-      <c s="59" r="F289"/>
+      <c s="58" r="F289"/>
       <c s="53" r="G289">
         <f>SUM(H289:M289)</f>
         <v>3346.3</v>
@@ -28792,11 +28792,11 @@
       <c s="13" r="D290">
         <v>7</v>
       </c>
-      <c s="59" r="E290">
+      <c s="58" r="E290">
         <f>((1/(INDEX(E0!J$20:J$44,C290,1)-INDEX(E0!J$20:J$44,D290,1))))*100000000</f>
         <v>128.065343700338</v>
       </c>
-      <c s="59" r="F290"/>
+      <c s="58" r="F290"/>
       <c s="53" r="G290">
         <f>SUM(H290:M290)</f>
         <v>0.035728</v>
@@ -28870,11 +28870,11 @@
       <c s="13" r="D291">
         <v>8</v>
       </c>
-      <c s="59" r="E291">
+      <c s="58" r="E291">
         <f>((1/(INDEX(E0!J$20:J$44,C291,1)-INDEX(E0!J$20:J$44,D291,1))))*100000000</f>
         <v>128.065645753336</v>
       </c>
-      <c s="59" r="F291"/>
+      <c s="58" r="F291"/>
       <c s="53" r="G291">
         <f>SUM(H291:M291)</f>
         <v>1417.2</v>
@@ -28948,11 +28948,11 @@
       <c s="13" r="D292">
         <v>9</v>
       </c>
-      <c s="59" r="E292">
+      <c s="58" r="E292">
         <f>((1/(INDEX(E0!J$20:J$44,C292,1)-INDEX(E0!J$20:J$44,D292,1))))*100000000</f>
         <v>128.124722106687</v>
       </c>
-      <c s="59" r="F292"/>
+      <c s="58" r="F292"/>
       <c s="53" r="G292">
         <f>SUM(H292:M292)</f>
         <v>11610000.11631</v>
@@ -29036,11 +29036,11 @@
       <c s="13" r="D293">
         <v>12</v>
       </c>
-      <c s="59" r="E293">
+      <c s="58" r="E293">
         <f>((1/(INDEX(E0!J$20:J$44,C293,1)-INDEX(E0!J$20:J$44,D293,1))))*100000000</f>
         <v>404.588790225486</v>
       </c>
-      <c s="59" r="F293"/>
+      <c s="58" r="F293"/>
       <c s="53" r="G293">
         <f>SUM(H293:M293)</f>
         <v>0.00030919</v>
@@ -29114,11 +29114,11 @@
       <c s="13" r="D294">
         <v>13</v>
       </c>
-      <c s="59" r="E294">
+      <c s="58" r="E294">
         <f>((1/(INDEX(E0!J$20:J$44,C294,1)-INDEX(E0!J$20:J$44,D294,1))))*100000000</f>
         <v>404.59008176019</v>
       </c>
-      <c s="59" r="F294"/>
+      <c s="58" r="F294"/>
       <c s="53" r="G294">
         <f>SUM(H294:M294)</f>
         <v>13.112</v>
@@ -29192,11 +29192,11 @@
       <c s="13" r="D295">
         <v>14</v>
       </c>
-      <c s="59" r="E295">
+      <c s="58" r="E295">
         <f>((1/(INDEX(E0!J$20:J$44,C295,1)-INDEX(E0!J$20:J$44,D295,1))))*100000000</f>
         <v>404.838427273234</v>
       </c>
-      <c s="59" r="F295"/>
+      <c s="58" r="F295"/>
       <c s="53" r="G295">
         <f>SUM(H295:M295)</f>
         <v>9.3499</v>
@@ -29280,11 +29280,11 @@
       <c s="13" r="D296">
         <v>15</v>
       </c>
-      <c s="59" r="E296">
+      <c s="58" r="E296">
         <f>((1/(INDEX(E0!J$20:J$44,C296,1)-INDEX(E0!J$20:J$44,D296,1))))*100000000</f>
         <v>404.838877982652</v>
       </c>
-      <c s="59" r="F296"/>
+      <c s="58" r="F296"/>
       <c s="53" r="G296">
         <f>SUM(H296:M296)</f>
         <v>1000800.0010042</v>
@@ -29368,11 +29368,11 @@
       <c s="13" r="D297">
         <v>16</v>
       </c>
-      <c s="59" r="E297">
+      <c s="58" r="E297">
         <f>((1/(INDEX(E0!J$20:J$44,C297,1)-INDEX(E0!J$20:J$44,D297,1))))*100000000</f>
         <v>404.963510590767</v>
       </c>
-      <c s="59" r="F297"/>
+      <c s="58" r="F297"/>
       <c s="53" r="G297">
         <f>SUM(H297:M297)</f>
         <v>42563000084.6835</v>
@@ -29456,11 +29456,11 @@
       <c s="13" r="D298">
         <v>19</v>
       </c>
-      <c s="59" r="E298">
+      <c s="58" r="E298">
         <f>((1/(INDEX(E0!J$20:J$44,C298,1)-INDEX(E0!J$20:J$44,D298,1))))*100000000</f>
         <v>711948.995974533</v>
       </c>
-      <c s="59" r="F298"/>
+      <c s="58" r="F298"/>
       <c s="53" r="G298">
         <f>SUM(H298:M298)</f>
         <v>0</v>
@@ -29534,11 +29534,11 @@
       <c s="13" r="D299">
         <v>20</v>
       </c>
-      <c s="59" r="E299">
+      <c s="58" r="E299">
         <f>((1/(INDEX(E0!J$20:J$44,C299,1)-INDEX(E0!J$20:J$44,D299,1))))*100000000</f>
         <v>714017.957550493</v>
       </c>
-      <c s="59" r="F299"/>
+      <c s="58" r="F299"/>
       <c s="53" r="G299">
         <f>SUM(H299:M299)</f>
         <v>0</v>
@@ -29612,11 +29612,11 @@
       <c s="13" r="D300">
         <v>21</v>
       </c>
-      <c s="59" r="E300">
+      <c s="58" r="E300">
         <f>((1/(INDEX(E0!J$20:J$44,C300,1)-INDEX(E0!J$20:J$44,D300,1))))*100000000</f>
         <v>1601909.47609818</v>
       </c>
-      <c s="59" r="F300"/>
+      <c s="58" r="F300"/>
       <c s="53" r="G300">
         <f>SUM(H300:M300)</f>
         <v>0</v>
@@ -29700,11 +29700,11 @@
       <c s="13" r="D301">
         <v>22</v>
       </c>
-      <c s="59" r="E301">
+      <c s="58" r="E301">
         <f>((1/(INDEX(E0!J$20:J$44,C301,1)-INDEX(E0!J$20:J$44,D301,1))))*100000000</f>
         <v>1605561.66563618</v>
       </c>
-      <c s="59" r="F301"/>
+      <c s="58" r="F301"/>
       <c s="53" r="G301">
         <f>SUM(H301:M301)</f>
         <v>0.000000000001697</v>
@@ -29788,11 +29788,11 @@
       <c s="13" r="D302">
         <v>23</v>
       </c>
-      <c s="59" r="E302">
+      <c s="58" r="E302">
         <f>((1/(INDEX(E0!J$20:J$44,C302,1)-INDEX(E0!J$20:J$44,D302,1))))*100000000</f>
         <v>4267322.12724937</v>
       </c>
-      <c s="59" r="F302"/>
+      <c s="58" r="F302"/>
       <c s="53" r="G302">
         <f>SUM(H302:M302)</f>
         <v>0.000000153200001</v>
@@ -29876,11 +29876,11 @@
       <c s="13" r="D303">
         <v>24</v>
       </c>
-      <c s="59" r="E303">
+      <c s="58" r="E303">
         <f>((1/(INDEX(E0!J$20:J$44,C303,1)-INDEX(E0!J$20:J$44,D303,1))))*100000000</f>
         <v>4280913.5469045</v>
       </c>
-      <c s="59" r="F303"/>
+      <c s="58" r="F303"/>
       <c s="53" r="G303">
         <f>SUM(H303:M303)</f>
         <v>0.058254</v>
@@ -29958,13 +29958,13 @@
       <c s="33" r="D304"/>
       <c s="18" r="E304"/>
       <c s="18" r="F304"/>
-      <c s="63" r="G304"/>
-      <c s="63" r="H304"/>
-      <c s="63" r="I304"/>
-      <c s="63" r="J304"/>
-      <c s="63" r="K304"/>
-      <c s="63" r="L304"/>
-      <c s="63" r="M304"/>
+      <c s="62" r="G304"/>
+      <c s="62" r="H304"/>
+      <c s="62" r="I304"/>
+      <c s="62" r="J304"/>
+      <c s="62" r="K304"/>
+      <c s="62" r="L304"/>
+      <c s="62" r="M304"/>
       <c s="25" r="N304"/>
       <c s="13" r="O304"/>
       <c s="31" r="P304"/>
@@ -30654,17 +30654,17 @@
       <c s="27" r="V5"/>
     </row>
     <row r="6">
-      <c s="60" r="A6"/>
-      <c s="60" r="B6"/>
-      <c s="60" r="C6"/>
-      <c s="60" r="D6"/>
-      <c s="60" r="E6"/>
-      <c s="60" r="F6"/>
-      <c s="60" r="G6"/>
-      <c s="60" r="H6"/>
-      <c s="60" r="I6"/>
-      <c s="60" r="J6"/>
-      <c s="60" r="K6"/>
+      <c s="59" r="A6"/>
+      <c s="59" r="B6"/>
+      <c s="59" r="C6"/>
+      <c s="59" r="D6"/>
+      <c s="59" r="E6"/>
+      <c s="59" r="F6"/>
+      <c s="59" r="G6"/>
+      <c s="59" r="H6"/>
+      <c s="59" r="I6"/>
+      <c s="59" r="J6"/>
+      <c s="59" r="K6"/>
       <c s="27" r="L6"/>
       <c s="27" r="M6"/>
       <c s="27" r="N6"/>
@@ -30678,13 +30678,13 @@
       <c s="27" r="V6"/>
     </row>
     <row r="7">
-      <c s="60" r="A7"/>
-      <c s="60" r="B7"/>
-      <c s="60" r="C7"/>
-      <c s="60" r="D7"/>
-      <c s="60" r="E7"/>
-      <c s="60" r="F7"/>
-      <c s="60" r="G7"/>
+      <c s="59" r="A7"/>
+      <c s="59" r="B7"/>
+      <c s="59" r="C7"/>
+      <c s="59" r="D7"/>
+      <c s="59" r="E7"/>
+      <c s="59" r="F7"/>
+      <c s="59" r="G7"/>
       <c s="27" r="H7"/>
       <c s="27" r="I7"/>
       <c s="27" r="J7"/>
@@ -30702,15 +30702,15 @@
       <c s="27" r="V7"/>
     </row>
     <row customHeight="1" r="8" ht="12.0">
-      <c s="54" r="A8"/>
-      <c s="60" r="B8"/>
-      <c s="60" r="C8"/>
-      <c s="60" r="D8"/>
-      <c s="60" r="E8"/>
-      <c s="60" r="F8"/>
-      <c s="60" r="G8"/>
-      <c s="60" r="H8"/>
-      <c s="60" r="I8"/>
+      <c s="66" r="A8"/>
+      <c s="59" r="B8"/>
+      <c s="59" r="C8"/>
+      <c s="59" r="D8"/>
+      <c s="59" r="E8"/>
+      <c s="59" r="F8"/>
+      <c s="59" r="G8"/>
+      <c s="59" r="H8"/>
+      <c s="59" r="I8"/>
       <c s="27" r="J8"/>
       <c s="27" r="K8"/>
       <c s="27" r="L8"/>
@@ -30779,10 +30779,10 @@
       <c s="27" r="C11"/>
       <c s="27" r="D11"/>
       <c s="27" r="E11"/>
-      <c s="64" r="F11"/>
-      <c s="64" r="G11"/>
-      <c s="64" r="H11"/>
-      <c s="64" r="I11"/>
+      <c s="63" r="F11"/>
+      <c s="63" r="G11"/>
+      <c s="63" r="H11"/>
+      <c s="63" r="I11"/>
       <c s="27" r="J11"/>
       <c s="27" r="K11"/>
       <c s="27" r="L11"/>
